--- a/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +36,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -758,11 +758,11 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>13</v>
@@ -780,19 +780,19 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>13360</v>
-      </c>
-      <c r="F12" s="13">
         <v>8837</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>11741</v>
+        <v>7754</v>
       </c>
       <c r="H12" s="13">
-        <v>7754</v>
+        <v>11452</v>
       </c>
       <c r="I12" s="13">
-        <v>11452</v>
+        <v>10757</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -804,19 +804,19 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>12786</v>
-      </c>
-      <c r="F13" s="11">
         <v>10714</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>13991</v>
+        <v>9733</v>
       </c>
       <c r="H13" s="11">
-        <v>9733</v>
+        <v>16486</v>
       </c>
       <c r="I13" s="11">
-        <v>16486</v>
+        <v>16617</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -828,19 +828,19 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>13738</v>
-      </c>
-      <c r="F14" s="13">
         <v>11473</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>14565</v>
+        <v>9152</v>
       </c>
       <c r="H14" s="13">
-        <v>9152</v>
+        <v>13306</v>
       </c>
       <c r="I14" s="13">
-        <v>13306</v>
+        <v>14049</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -850,19 +850,19 @@
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>39884</v>
+        <v>31024</v>
       </c>
       <c r="F15" s="15">
-        <v>31024</v>
+        <v>0</v>
       </c>
       <c r="G15" s="15">
-        <v>40297</v>
+        <v>26639</v>
       </c>
       <c r="H15" s="15">
-        <v>26639</v>
+        <v>41244</v>
       </c>
       <c r="I15" s="15">
-        <v>41244</v>
+        <v>41423</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -888,11 +888,11 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>13</v>
@@ -910,19 +910,19 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>43</v>
-      </c>
-      <c r="F18" s="13">
         <v>63</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="13">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H18" s="13">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I18" s="13">
-        <v>178</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -934,19 +934,19 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>68</v>
-      </c>
-      <c r="F19" s="11">
         <v>295</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="11">
-        <v>674</v>
+        <v>576</v>
       </c>
       <c r="H19" s="11">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="I19" s="11">
-        <v>486</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -958,19 +958,19 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13">
         <v>35</v>
       </c>
+      <c r="F20" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G20" s="13">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H20" s="13">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I20" s="13">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -980,19 +980,19 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="F21" s="15">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>832</v>
+        <v>622</v>
       </c>
       <c r="H21" s="15">
-        <v>622</v>
+        <v>862</v>
       </c>
       <c r="I21" s="15">
-        <v>862</v>
+        <v>631</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1086,8 +1086,8 @@
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
+      <c r="F26" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -1106,19 +1106,19 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="F27" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>41129</v>
+        <v>27261</v>
       </c>
       <c r="H27" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="I27" s="15">
-        <v>42106</v>
+        <v>42054</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -1206,11 +1206,11 @@
       <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>13</v>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>3026229</v>
-      </c>
-      <c r="F35" s="13">
         <v>2139558</v>
       </c>
+      <c r="F35" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="13">
-        <v>2856879</v>
+        <v>2242593</v>
       </c>
       <c r="H35" s="13">
-        <v>2242593</v>
+        <v>3483135</v>
       </c>
       <c r="I35" s="13">
-        <v>3483135</v>
+        <v>3778962</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1252,19 +1252,19 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>2315381</v>
-      </c>
-      <c r="F36" s="11">
         <v>2000284</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="11">
-        <v>2665824</v>
+        <v>2155377</v>
       </c>
       <c r="H36" s="11">
-        <v>2155377</v>
+        <v>3858958</v>
       </c>
       <c r="I36" s="11">
-        <v>3858958</v>
+        <v>4291091</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -1276,19 +1276,19 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>1571636</v>
-      </c>
-      <c r="F37" s="13">
         <v>1206770</v>
       </c>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="13">
-        <v>1658416</v>
+        <v>1258059</v>
       </c>
       <c r="H37" s="13">
-        <v>1258059</v>
+        <v>1884248</v>
       </c>
       <c r="I37" s="13">
-        <v>1884248</v>
+        <v>2058189</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -1298,19 +1298,19 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>6913246</v>
+        <v>5346612</v>
       </c>
       <c r="F38" s="15">
-        <v>5346612</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
-        <v>7181119</v>
+        <v>5656029</v>
       </c>
       <c r="H38" s="15">
-        <v>5656029</v>
+        <v>9226341</v>
       </c>
       <c r="I38" s="15">
-        <v>9226341</v>
+        <v>10128242</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -1336,11 +1336,11 @@
       <c r="E40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>13</v>
@@ -1358,19 +1358,19 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>10804</v>
-      </c>
-      <c r="F41" s="13">
         <v>16464</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>24493</v>
+        <v>9666</v>
       </c>
       <c r="H41" s="13">
-        <v>9666</v>
+        <v>84350</v>
       </c>
       <c r="I41" s="13">
-        <v>84350</v>
+        <v>37306</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>10226</v>
-      </c>
-      <c r="F42" s="11">
         <v>44525</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>63537</v>
+        <v>46649</v>
       </c>
       <c r="H42" s="11">
-        <v>46649</v>
+        <v>69197</v>
       </c>
       <c r="I42" s="11">
-        <v>69197</v>
+        <v>73912</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>3002</v>
-      </c>
-      <c r="F43" s="13">
         <v>7435</v>
       </c>
+      <c r="F43" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G43" s="13">
-        <v>14374</v>
+        <v>3445</v>
       </c>
       <c r="H43" s="13">
-        <v>3445</v>
+        <v>34152</v>
       </c>
       <c r="I43" s="13">
-        <v>34152</v>
+        <v>33798</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1428,19 +1428,19 @@
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>24032</v>
+        <v>68424</v>
       </c>
       <c r="F44" s="15">
-        <v>68424</v>
+        <v>0</v>
       </c>
       <c r="G44" s="15">
-        <v>102404</v>
+        <v>59760</v>
       </c>
       <c r="H44" s="15">
-        <v>59760</v>
+        <v>187699</v>
       </c>
       <c r="I44" s="15">
-        <v>187699</v>
+        <v>145016</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -1470,13 +1470,13 @@
         <v>13</v>
       </c>
       <c r="G46" s="11">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H46" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I46" s="11">
-        <v>25610</v>
+        <v>11917</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -1492,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="G47" s="17">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H47" s="17">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I47" s="17">
-        <v>25610</v>
+        <v>11917</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -1536,8 +1536,8 @@
       <c r="E49" s="17">
         <v>0</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
+      <c r="F49" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="17">
         <v>0</v>
@@ -1556,19 +1556,19 @@
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>6937278</v>
+        <v>5415036</v>
       </c>
       <c r="F50" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>7328558</v>
+        <v>5730428</v>
       </c>
       <c r="H50" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="I50" s="15">
-        <v>9439650</v>
+        <v>10285175</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -1678,19 +1678,19 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>226514147</v>
+        <v>237043873</v>
       </c>
       <c r="F58" s="13">
-        <v>237043873</v>
+        <v>243325015</v>
       </c>
       <c r="G58" s="13">
-        <v>243325015</v>
+        <v>289217565</v>
       </c>
       <c r="H58" s="13">
-        <v>289217565</v>
+        <v>304150803</v>
       </c>
       <c r="I58" s="13">
-        <v>304150803</v>
+        <v>351302594</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -1702,19 +1702,19 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>181087205</v>
+        <v>186698152</v>
       </c>
       <c r="F59" s="11">
-        <v>186698152</v>
+        <v>190538489</v>
       </c>
       <c r="G59" s="11">
-        <v>190538489</v>
+        <v>221450426</v>
       </c>
       <c r="H59" s="11">
-        <v>221450426</v>
+        <v>234074851</v>
       </c>
       <c r="I59" s="11">
-        <v>234074851</v>
+        <v>258235000</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -1726,19 +1726,19 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>114400641</v>
+        <v>105192643</v>
       </c>
       <c r="F60" s="13">
-        <v>105192643</v>
+        <v>113863096</v>
       </c>
       <c r="G60" s="13">
-        <v>113863096</v>
+        <v>137462740</v>
       </c>
       <c r="H60" s="13">
-        <v>137462740</v>
+        <v>141608898</v>
       </c>
       <c r="I60" s="13">
-        <v>141608898</v>
+        <v>146500747</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -1786,19 +1786,19 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>251255814</v>
+        <v>265548387</v>
       </c>
       <c r="F63" s="13">
-        <v>265548387</v>
+        <v>322276316</v>
       </c>
       <c r="G63" s="13">
-        <v>322276316</v>
+        <v>371769231</v>
       </c>
       <c r="H63" s="13">
-        <v>371769231</v>
+        <v>473876404</v>
       </c>
       <c r="I63" s="13">
-        <v>473876404</v>
+        <v>409956044</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1810,19 +1810,19 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>150382353</v>
+        <v>150932203</v>
       </c>
       <c r="F64" s="11">
-        <v>150932203</v>
+        <v>94268546</v>
       </c>
       <c r="G64" s="11">
-        <v>94268546</v>
+        <v>80987847</v>
       </c>
       <c r="H64" s="11">
-        <v>80987847</v>
+        <v>142380658</v>
       </c>
       <c r="I64" s="11">
-        <v>142380658</v>
+        <v>202498630</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -1834,19 +1834,19 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>187625000</v>
+        <v>212428571</v>
       </c>
       <c r="F65" s="13">
-        <v>212428571</v>
+        <v>175292683</v>
       </c>
       <c r="G65" s="13">
-        <v>175292683</v>
+        <v>172250000</v>
       </c>
       <c r="H65" s="13">
-        <v>172250000</v>
+        <v>172484848</v>
       </c>
       <c r="I65" s="13">
-        <v>172484848</v>
+        <v>193131429</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -1970,11 +1970,11 @@
       <c r="E74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>13</v>
@@ -1992,19 +1992,19 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-1994160</v>
+        <v>-1517322</v>
       </c>
       <c r="F75" s="13">
-        <v>-1517322</v>
+        <v>-2046685</v>
       </c>
       <c r="G75" s="13">
-        <v>-2046685</v>
+        <v>-1504719</v>
       </c>
       <c r="H75" s="13">
-        <v>-1504719</v>
+        <v>-2227176</v>
       </c>
       <c r="I75" s="13">
-        <v>-2206909</v>
+        <v>-2311877</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
@@ -2016,19 +2016,19 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-1835630</v>
+        <v>-1637348</v>
       </c>
       <c r="F76" s="11">
-        <v>-1637348</v>
+        <v>-2153379</v>
       </c>
       <c r="G76" s="11">
-        <v>-2153379</v>
+        <v>-1710430</v>
       </c>
       <c r="H76" s="11">
-        <v>-1710430</v>
+        <v>-2894705</v>
       </c>
       <c r="I76" s="11">
-        <v>-2871340</v>
+        <v>-3020615</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -2040,19 +2040,19 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-1287844</v>
+        <v>-1037358</v>
       </c>
       <c r="F77" s="13">
-        <v>-1037358</v>
+        <v>-1323228</v>
       </c>
       <c r="G77" s="13">
-        <v>-1323228</v>
+        <v>-1002838</v>
       </c>
       <c r="H77" s="13">
-        <v>-1002838</v>
+        <v>-1443000</v>
       </c>
       <c r="I77" s="13">
-        <v>-1437553</v>
+        <v>-1513782</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -2062,19 +2062,19 @@
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>-5117634</v>
+        <v>-4192028</v>
       </c>
       <c r="F78" s="15">
-        <v>-4192028</v>
+        <v>-5523292</v>
       </c>
       <c r="G78" s="15">
-        <v>-5523292</v>
+        <v>-4217987</v>
       </c>
       <c r="H78" s="15">
-        <v>-4217987</v>
+        <v>-6564881</v>
       </c>
       <c r="I78" s="15">
-        <v>-6515802</v>
+        <v>-6846274</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -2100,11 +2100,11 @@
       <c r="E80" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
+      <c r="F80" s="11">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>13</v>
@@ -2122,19 +2122,19 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-8686</v>
+        <v>-12467</v>
       </c>
       <c r="F81" s="13">
-        <v>-12467</v>
+        <v>-19560</v>
       </c>
       <c r="G81" s="13">
-        <v>-19560</v>
+        <v>-6931</v>
       </c>
       <c r="H81" s="13">
-        <v>-6931</v>
+        <v>-63834</v>
       </c>
       <c r="I81" s="13">
-        <v>-63779</v>
+        <v>70765</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -2146,19 +2146,19 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-8820</v>
+        <v>-38163</v>
       </c>
       <c r="F82" s="11">
-        <v>-38163</v>
+        <v>-63174</v>
       </c>
       <c r="G82" s="11">
-        <v>-63174</v>
+        <v>-45766</v>
       </c>
       <c r="H82" s="11">
-        <v>-45766</v>
+        <v>-57809</v>
       </c>
       <c r="I82" s="11">
-        <v>-58735</v>
+        <v>103575</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -2170,19 +2170,19 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>-2417</v>
+        <v>-5784</v>
       </c>
       <c r="F83" s="13">
-        <v>-5784</v>
+        <v>-10669</v>
       </c>
       <c r="G83" s="13">
-        <v>-10669</v>
+        <v>-3043</v>
       </c>
       <c r="H83" s="13">
-        <v>-3043</v>
+        <v>-30672</v>
       </c>
       <c r="I83" s="13">
-        <v>-30696</v>
+        <v>33715</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2192,19 +2192,19 @@
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>-19923</v>
+        <v>-56414</v>
       </c>
       <c r="F84" s="15">
-        <v>-56414</v>
+        <v>-93403</v>
       </c>
       <c r="G84" s="15">
-        <v>-93403</v>
+        <v>-55740</v>
       </c>
       <c r="H84" s="15">
-        <v>-55740</v>
+        <v>-152315</v>
       </c>
       <c r="I84" s="15">
-        <v>-153210</v>
+        <v>208055</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -2230,17 +2230,17 @@
       <c r="E86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>13</v>
+      <c r="F86" s="11">
+        <v>-33207</v>
       </c>
       <c r="G86" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H86" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I86" s="11">
-        <v>-13201</v>
+        <v>-6493</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -2253,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="17">
-        <v>0</v>
+        <v>-33207</v>
       </c>
       <c r="G87" s="17">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H87" s="17">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I87" s="17">
-        <v>-13201</v>
+        <v>-6493</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -2320,19 +2320,19 @@
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="F90" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="G90" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="H90" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="I90" s="15">
-        <v>-6682213</v>
+        <v>-6644712</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2420,11 +2420,11 @@
       <c r="E97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>13</v>
@@ -2442,19 +2442,19 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>1031789</v>
+        <v>622236</v>
       </c>
       <c r="F98" s="13">
-        <v>622236</v>
+        <v>810194</v>
       </c>
       <c r="G98" s="13">
-        <v>810194</v>
+        <v>737874</v>
       </c>
       <c r="H98" s="13">
-        <v>737874</v>
+        <v>1255959</v>
       </c>
       <c r="I98" s="13">
-        <v>1276226</v>
+        <v>1467085</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>479751</v>
+        <v>362936</v>
       </c>
       <c r="F99" s="11">
-        <v>362936</v>
+        <v>512445</v>
       </c>
       <c r="G99" s="11">
-        <v>512445</v>
+        <v>444947</v>
       </c>
       <c r="H99" s="11">
-        <v>444947</v>
+        <v>964253</v>
       </c>
       <c r="I99" s="11">
-        <v>987618</v>
+        <v>1270476</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2490,19 +2490,19 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>283792</v>
+        <v>169412</v>
       </c>
       <c r="F100" s="13">
-        <v>169412</v>
+        <v>335188</v>
       </c>
       <c r="G100" s="13">
-        <v>335188</v>
+        <v>255221</v>
       </c>
       <c r="H100" s="13">
-        <v>255221</v>
+        <v>441248</v>
       </c>
       <c r="I100" s="13">
-        <v>446695</v>
+        <v>544407</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2512,19 +2512,19 @@
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>1795332</v>
+        <v>1154584</v>
       </c>
       <c r="F101" s="15">
-        <v>1154584</v>
+        <v>1657827</v>
       </c>
       <c r="G101" s="15">
-        <v>1657827</v>
+        <v>1438042</v>
       </c>
       <c r="H101" s="15">
-        <v>1438042</v>
+        <v>2661460</v>
       </c>
       <c r="I101" s="15">
-        <v>2710539</v>
+        <v>3281968</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2550,11 +2550,11 @@
       <c r="E103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11">
-        <v>0</v>
+      <c r="F103" s="11">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>13</v>
@@ -2572,19 +2572,19 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>2118</v>
+        <v>3997</v>
       </c>
       <c r="F104" s="13">
-        <v>3997</v>
+        <v>4933</v>
       </c>
       <c r="G104" s="13">
-        <v>4933</v>
+        <v>2735</v>
       </c>
       <c r="H104" s="13">
-        <v>2735</v>
+        <v>20516</v>
       </c>
       <c r="I104" s="13">
-        <v>20571</v>
+        <v>108071</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2596,19 +2596,19 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>1406</v>
+        <v>6362</v>
       </c>
       <c r="F105" s="11">
-        <v>6362</v>
+        <v>363</v>
       </c>
       <c r="G105" s="11">
-        <v>363</v>
+        <v>883</v>
       </c>
       <c r="H105" s="11">
-        <v>883</v>
+        <v>11388</v>
       </c>
       <c r="I105" s="11">
-        <v>10462</v>
+        <v>177487</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -2620,19 +2620,19 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>585</v>
+        <v>1651</v>
       </c>
       <c r="F106" s="13">
-        <v>1651</v>
+        <v>3705</v>
       </c>
       <c r="G106" s="13">
-        <v>3705</v>
+        <v>402</v>
       </c>
       <c r="H106" s="13">
-        <v>402</v>
+        <v>3480</v>
       </c>
       <c r="I106" s="13">
-        <v>3456</v>
+        <v>67513</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2642,19 +2642,19 @@
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>4109</v>
+        <v>12010</v>
       </c>
       <c r="F107" s="15">
-        <v>12010</v>
+        <v>9001</v>
       </c>
       <c r="G107" s="15">
-        <v>9001</v>
+        <v>4020</v>
       </c>
       <c r="H107" s="15">
-        <v>4020</v>
+        <v>35384</v>
       </c>
       <c r="I107" s="15">
-        <v>34489</v>
+        <v>353071</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -2680,17 +2680,17 @@
       <c r="E109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>13</v>
+      <c r="F109" s="11">
+        <v>11828</v>
       </c>
       <c r="G109" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H109" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I109" s="11">
-        <v>12409</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2703,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="F110" s="17">
-        <v>0</v>
+        <v>11828</v>
       </c>
       <c r="G110" s="17">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H110" s="17">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I110" s="17">
-        <v>12409</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -2722,19 +2722,19 @@
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="F111" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="G111" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="H111" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="I111" s="15">
-        <v>2757437</v>
+        <v>3640463</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF96CE0-AD88-475C-9B20-0C6FFCFE6E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -49,6 +47,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +371,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -382,7 +383,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -429,6 +430,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -464,6 +482,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,17 +650,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -635,7 +670,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -647,7 +682,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -659,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -669,7 +704,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -681,7 +716,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -693,7 +728,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -703,7 +738,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -725,7 +760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -735,7 +770,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -747,7 +782,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -758,11 +793,11 @@
       <c r="E11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>13</v>
@@ -771,7 +806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -780,22 +815,22 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>13360</v>
-      </c>
-      <c r="F12" s="13">
         <v>8837</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>11741</v>
+        <v>7754</v>
       </c>
       <c r="H12" s="13">
-        <v>7754</v>
+        <v>11452</v>
       </c>
       <c r="I12" s="13">
-        <v>11452</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10757</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -804,22 +839,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>12786</v>
-      </c>
-      <c r="F13" s="11">
         <v>10714</v>
       </c>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="11">
-        <v>13991</v>
+        <v>9733</v>
       </c>
       <c r="H13" s="11">
-        <v>9733</v>
+        <v>16486</v>
       </c>
       <c r="I13" s="11">
-        <v>16486</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16617</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -828,44 +863,44 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>13738</v>
-      </c>
-      <c r="F14" s="13">
         <v>11473</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>14565</v>
+        <v>9152</v>
       </c>
       <c r="H14" s="13">
-        <v>9152</v>
+        <v>13306</v>
       </c>
       <c r="I14" s="13">
-        <v>13306</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14049</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>39884</v>
+        <v>31024</v>
       </c>
       <c r="F15" s="15">
-        <v>31024</v>
+        <v>0</v>
       </c>
       <c r="G15" s="15">
-        <v>40297</v>
+        <v>26639</v>
       </c>
       <c r="H15" s="15">
-        <v>26639</v>
+        <v>41244</v>
       </c>
       <c r="I15" s="15">
-        <v>41244</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41423</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -877,7 +912,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
@@ -888,11 +923,11 @@
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>13</v>
@@ -901,7 +936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
@@ -910,22 +945,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>43</v>
-      </c>
-      <c r="F18" s="13">
         <v>63</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="13">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H18" s="13">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="I18" s="13">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>15</v>
       </c>
@@ -934,22 +969,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>68</v>
-      </c>
-      <c r="F19" s="11">
         <v>295</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="11">
-        <v>674</v>
+        <v>576</v>
       </c>
       <c r="H19" s="11">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="I19" s="11">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>16</v>
       </c>
@@ -958,44 +993,44 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>16</v>
-      </c>
-      <c r="F20" s="13">
         <v>35</v>
       </c>
+      <c r="F20" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G20" s="13">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H20" s="13">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="I20" s="13">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="F21" s="15">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>832</v>
+        <v>622</v>
       </c>
       <c r="H21" s="15">
-        <v>622</v>
+        <v>862</v>
       </c>
       <c r="I21" s="15">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1042,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>23</v>
       </c>
@@ -1053,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1077,7 +1112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1086,8 +1121,8 @@
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
+      <c r="F26" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
@@ -1099,29 +1134,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="F27" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="G27" s="15">
-        <v>41129</v>
+        <v>27261</v>
       </c>
       <c r="H27" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="I27" s="15">
-        <v>42106</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42054</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1131,7 +1166,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1141,7 +1176,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1151,7 +1186,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
@@ -1173,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1183,7 +1218,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>29</v>
       </c>
@@ -1195,7 +1230,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
@@ -1206,11 +1241,11 @@
       <c r="E34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0</v>
+      <c r="F34" s="11">
+        <v>0</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>13</v>
@@ -1219,7 +1254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>14</v>
       </c>
@@ -1228,22 +1263,22 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>3026229</v>
-      </c>
-      <c r="F35" s="13">
         <v>2139558</v>
       </c>
+      <c r="F35" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="13">
-        <v>2856879</v>
+        <v>2242593</v>
       </c>
       <c r="H35" s="13">
-        <v>2242593</v>
+        <v>3483135</v>
       </c>
       <c r="I35" s="13">
-        <v>3483135</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3778962</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>15</v>
       </c>
@@ -1252,22 +1287,22 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>2315381</v>
-      </c>
-      <c r="F36" s="11">
         <v>2000284</v>
       </c>
+      <c r="F36" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G36" s="11">
-        <v>2665824</v>
+        <v>2155377</v>
       </c>
       <c r="H36" s="11">
-        <v>2155377</v>
+        <v>3858958</v>
       </c>
       <c r="I36" s="11">
-        <v>3858958</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4291091</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>16</v>
       </c>
@@ -1276,44 +1311,44 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>1571636</v>
-      </c>
-      <c r="F37" s="13">
         <v>1206770</v>
       </c>
+      <c r="F37" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G37" s="13">
-        <v>1658416</v>
+        <v>1258059</v>
       </c>
       <c r="H37" s="13">
-        <v>1258059</v>
+        <v>1884248</v>
       </c>
       <c r="I37" s="13">
-        <v>1884248</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2058189</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>6913246</v>
+        <v>5346612</v>
       </c>
       <c r="F38" s="15">
-        <v>5346612</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
-        <v>7181119</v>
+        <v>5656029</v>
       </c>
       <c r="H38" s="15">
-        <v>5656029</v>
+        <v>9226341</v>
       </c>
       <c r="I38" s="15">
-        <v>9226341</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10128242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -1325,7 +1360,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
@@ -1336,11 +1371,11 @@
       <c r="E40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>13</v>
@@ -1349,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>14</v>
       </c>
@@ -1358,22 +1393,22 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>10804</v>
-      </c>
-      <c r="F41" s="13">
         <v>16464</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>24493</v>
+        <v>9666</v>
       </c>
       <c r="H41" s="13">
-        <v>9666</v>
+        <v>84350</v>
       </c>
       <c r="I41" s="13">
-        <v>84350</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>15</v>
       </c>
@@ -1382,22 +1417,22 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>10226</v>
-      </c>
-      <c r="F42" s="11">
         <v>44525</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>63537</v>
+        <v>46649</v>
       </c>
       <c r="H42" s="11">
-        <v>46649</v>
+        <v>69197</v>
       </c>
       <c r="I42" s="11">
-        <v>69197</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73912</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1406,44 +1441,44 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>3002</v>
-      </c>
-      <c r="F43" s="13">
         <v>7435</v>
       </c>
+      <c r="F43" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G43" s="13">
-        <v>14374</v>
+        <v>3445</v>
       </c>
       <c r="H43" s="13">
-        <v>3445</v>
+        <v>34152</v>
       </c>
       <c r="I43" s="13">
-        <v>34152</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33798</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>24032</v>
+        <v>68424</v>
       </c>
       <c r="F44" s="15">
-        <v>68424</v>
+        <v>0</v>
       </c>
       <c r="G44" s="15">
-        <v>102404</v>
+        <v>59760</v>
       </c>
       <c r="H44" s="15">
-        <v>59760</v>
+        <v>187699</v>
       </c>
       <c r="I44" s="15">
-        <v>187699</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145016</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>32</v>
       </c>
@@ -1455,7 +1490,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1470,16 +1505,16 @@
         <v>13</v>
       </c>
       <c r="G46" s="11">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H46" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I46" s="11">
-        <v>25610</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>23</v>
       </c>
@@ -1492,16 +1527,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="17">
-        <v>45035</v>
+        <v>14639</v>
       </c>
       <c r="H47" s="17">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="I47" s="17">
-        <v>25610</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11917</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>26</v>
       </c>
@@ -1536,8 +1571,8 @@
       <c r="E49" s="17">
         <v>0</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
+      <c r="F49" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="17">
         <v>0</v>
@@ -1549,29 +1584,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>6937278</v>
+        <v>5415036</v>
       </c>
       <c r="F50" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="G50" s="15">
-        <v>7328558</v>
+        <v>5730428</v>
       </c>
       <c r="H50" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="I50" s="15">
-        <v>9439650</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10285175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1581,7 +1616,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1591,7 +1626,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1601,7 +1636,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1633,7 +1668,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1680,7 @@
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>14</v>
       </c>
@@ -1678,22 +1713,22 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>226514147</v>
+        <v>237043873</v>
       </c>
       <c r="F58" s="13">
-        <v>237043873</v>
+        <v>243325015</v>
       </c>
       <c r="G58" s="13">
-        <v>243325015</v>
+        <v>289217565</v>
       </c>
       <c r="H58" s="13">
-        <v>289217565</v>
+        <v>304150803</v>
       </c>
       <c r="I58" s="13">
-        <v>304150803</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>351302594</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>15</v>
       </c>
@@ -1702,22 +1737,22 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>181087205</v>
+        <v>186698152</v>
       </c>
       <c r="F59" s="11">
-        <v>186698152</v>
+        <v>190538489</v>
       </c>
       <c r="G59" s="11">
-        <v>190538489</v>
+        <v>221450426</v>
       </c>
       <c r="H59" s="11">
-        <v>221450426</v>
+        <v>234074851</v>
       </c>
       <c r="I59" s="11">
-        <v>234074851</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258235000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>16</v>
       </c>
@@ -1726,22 +1761,22 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>114400641</v>
+        <v>105192643</v>
       </c>
       <c r="F60" s="13">
-        <v>105192643</v>
+        <v>113863096</v>
       </c>
       <c r="G60" s="13">
-        <v>113863096</v>
+        <v>137462740</v>
       </c>
       <c r="H60" s="13">
-        <v>137462740</v>
+        <v>141608898</v>
       </c>
       <c r="I60" s="13">
-        <v>141608898</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>146500747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +1788,7 @@
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>11</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>14</v>
       </c>
@@ -1786,22 +1821,22 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>251255814</v>
+        <v>265548387</v>
       </c>
       <c r="F63" s="13">
-        <v>265548387</v>
+        <v>322276316</v>
       </c>
       <c r="G63" s="13">
-        <v>322276316</v>
+        <v>371769231</v>
       </c>
       <c r="H63" s="13">
-        <v>371769231</v>
+        <v>473876404</v>
       </c>
       <c r="I63" s="13">
-        <v>473876404</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>409956044</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>15</v>
       </c>
@@ -1810,22 +1845,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>150382353</v>
+        <v>150932203</v>
       </c>
       <c r="F64" s="11">
-        <v>150932203</v>
+        <v>94268546</v>
       </c>
       <c r="G64" s="11">
-        <v>94268546</v>
+        <v>80987847</v>
       </c>
       <c r="H64" s="11">
-        <v>80987847</v>
+        <v>142380658</v>
       </c>
       <c r="I64" s="11">
-        <v>142380658</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>202498630</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>16</v>
       </c>
@@ -1834,22 +1869,22 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>187625000</v>
+        <v>212428571</v>
       </c>
       <c r="F65" s="13">
-        <v>212428571</v>
+        <v>175292683</v>
       </c>
       <c r="G65" s="13">
-        <v>175292683</v>
+        <v>172250000</v>
       </c>
       <c r="H65" s="13">
-        <v>172250000</v>
+        <v>172484848</v>
       </c>
       <c r="I65" s="13">
-        <v>172484848</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>193131429</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>37</v>
       </c>
@@ -1861,7 +1896,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1895,7 +1930,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1905,7 +1940,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1915,7 +1950,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1947,7 +1982,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>40</v>
       </c>
@@ -1959,7 +1994,7 @@
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>11</v>
       </c>
@@ -1970,11 +2005,11 @@
       <c r="E74" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>13</v>
@@ -1983,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>14</v>
       </c>
@@ -1992,22 +2027,22 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-1994160</v>
+        <v>-1517322</v>
       </c>
       <c r="F75" s="13">
-        <v>-1517322</v>
+        <v>-2046685</v>
       </c>
       <c r="G75" s="13">
-        <v>-2046685</v>
+        <v>-1504719</v>
       </c>
       <c r="H75" s="13">
-        <v>-1504719</v>
+        <v>-2227176</v>
       </c>
       <c r="I75" s="13">
-        <v>-2206909</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2311877</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>15</v>
       </c>
@@ -2016,22 +2051,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-1835630</v>
+        <v>-1637348</v>
       </c>
       <c r="F76" s="11">
-        <v>-1637348</v>
+        <v>-2153379</v>
       </c>
       <c r="G76" s="11">
-        <v>-2153379</v>
+        <v>-1710430</v>
       </c>
       <c r="H76" s="11">
-        <v>-1710430</v>
+        <v>-2894705</v>
       </c>
       <c r="I76" s="11">
-        <v>-2871340</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3020615</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>16</v>
       </c>
@@ -2040,44 +2075,44 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-1287844</v>
+        <v>-1037358</v>
       </c>
       <c r="F77" s="13">
-        <v>-1037358</v>
+        <v>-1323228</v>
       </c>
       <c r="G77" s="13">
-        <v>-1323228</v>
+        <v>-1002838</v>
       </c>
       <c r="H77" s="13">
-        <v>-1002838</v>
+        <v>-1443000</v>
       </c>
       <c r="I77" s="13">
-        <v>-1437553</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1513782</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>-5117634</v>
+        <v>-4192028</v>
       </c>
       <c r="F78" s="15">
-        <v>-4192028</v>
+        <v>-5523292</v>
       </c>
       <c r="G78" s="15">
-        <v>-5523292</v>
+        <v>-4217987</v>
       </c>
       <c r="H78" s="15">
-        <v>-4217987</v>
+        <v>-6564881</v>
       </c>
       <c r="I78" s="15">
-        <v>-6515802</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6846274</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>42</v>
       </c>
@@ -2089,7 +2124,7 @@
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>11</v>
       </c>
@@ -2100,11 +2135,11 @@
       <c r="E80" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
+      <c r="F80" s="11">
+        <v>0</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>13</v>
@@ -2113,7 +2148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
@@ -2122,22 +2157,22 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-8686</v>
+        <v>-12467</v>
       </c>
       <c r="F81" s="13">
-        <v>-12467</v>
+        <v>-19560</v>
       </c>
       <c r="G81" s="13">
-        <v>-19560</v>
+        <v>-6931</v>
       </c>
       <c r="H81" s="13">
-        <v>-6931</v>
+        <v>-63834</v>
       </c>
       <c r="I81" s="13">
-        <v>-63779</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>70765</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>15</v>
       </c>
@@ -2146,22 +2181,22 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-8820</v>
+        <v>-38163</v>
       </c>
       <c r="F82" s="11">
-        <v>-38163</v>
+        <v>-63174</v>
       </c>
       <c r="G82" s="11">
-        <v>-63174</v>
+        <v>-45766</v>
       </c>
       <c r="H82" s="11">
-        <v>-45766</v>
+        <v>-57809</v>
       </c>
       <c r="I82" s="11">
-        <v>-58735</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>103575</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>16</v>
       </c>
@@ -2170,44 +2205,44 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>-2417</v>
+        <v>-5784</v>
       </c>
       <c r="F83" s="13">
-        <v>-5784</v>
+        <v>-10669</v>
       </c>
       <c r="G83" s="13">
-        <v>-10669</v>
+        <v>-3043</v>
       </c>
       <c r="H83" s="13">
-        <v>-3043</v>
+        <v>-30672</v>
       </c>
       <c r="I83" s="13">
-        <v>-30696</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33715</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>-19923</v>
+        <v>-56414</v>
       </c>
       <c r="F84" s="15">
-        <v>-56414</v>
+        <v>-93403</v>
       </c>
       <c r="G84" s="15">
-        <v>-93403</v>
+        <v>-55740</v>
       </c>
       <c r="H84" s="15">
-        <v>-55740</v>
+        <v>-152315</v>
       </c>
       <c r="I84" s="15">
-        <v>-153210</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>208055</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>44</v>
       </c>
@@ -2219,7 +2254,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
@@ -2230,20 +2265,20 @@
       <c r="E86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>13</v>
+      <c r="F86" s="11">
+        <v>-33207</v>
       </c>
       <c r="G86" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H86" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I86" s="11">
-        <v>-13201</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6493</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>45</v>
       </c>
@@ -2253,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="17">
-        <v>0</v>
+        <v>-33207</v>
       </c>
       <c r="G87" s="17">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="H87" s="17">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="I87" s="17">
-        <v>-13201</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6493</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>26</v>
       </c>
@@ -2313,29 +2348,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="F90" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="G90" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="H90" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="I90" s="15">
-        <v>-6682213</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6644712</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2345,7 +2380,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2355,7 +2390,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2365,7 +2400,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>46</v>
       </c>
@@ -2387,7 +2422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2397,7 +2432,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>47</v>
       </c>
@@ -2409,7 +2444,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>11</v>
       </c>
@@ -2420,11 +2455,11 @@
       <c r="E97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>13</v>
@@ -2433,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>14</v>
       </c>
@@ -2442,22 +2477,22 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>1031789</v>
+        <v>622236</v>
       </c>
       <c r="F98" s="13">
-        <v>622236</v>
+        <v>810194</v>
       </c>
       <c r="G98" s="13">
-        <v>810194</v>
+        <v>737874</v>
       </c>
       <c r="H98" s="13">
-        <v>737874</v>
+        <v>1255959</v>
       </c>
       <c r="I98" s="13">
-        <v>1276226</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1467085</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>15</v>
       </c>
@@ -2466,22 +2501,22 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>479751</v>
+        <v>362936</v>
       </c>
       <c r="F99" s="11">
-        <v>362936</v>
+        <v>512445</v>
       </c>
       <c r="G99" s="11">
-        <v>512445</v>
+        <v>444947</v>
       </c>
       <c r="H99" s="11">
-        <v>444947</v>
+        <v>964253</v>
       </c>
       <c r="I99" s="11">
-        <v>987618</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1270476</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>16</v>
       </c>
@@ -2490,44 +2525,44 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>283792</v>
+        <v>169412</v>
       </c>
       <c r="F100" s="13">
-        <v>169412</v>
+        <v>335188</v>
       </c>
       <c r="G100" s="13">
-        <v>335188</v>
+        <v>255221</v>
       </c>
       <c r="H100" s="13">
-        <v>255221</v>
+        <v>441248</v>
       </c>
       <c r="I100" s="13">
-        <v>446695</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>544407</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>1795332</v>
+        <v>1154584</v>
       </c>
       <c r="F101" s="15">
-        <v>1154584</v>
+        <v>1657827</v>
       </c>
       <c r="G101" s="15">
-        <v>1657827</v>
+        <v>1438042</v>
       </c>
       <c r="H101" s="15">
-        <v>1438042</v>
+        <v>2661460</v>
       </c>
       <c r="I101" s="15">
-        <v>2710539</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3281968</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>49</v>
       </c>
@@ -2539,7 +2574,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>11</v>
       </c>
@@ -2550,11 +2585,11 @@
       <c r="E103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11">
-        <v>0</v>
+      <c r="F103" s="11">
+        <v>0</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H103" s="11" t="s">
         <v>13</v>
@@ -2563,7 +2598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>14</v>
       </c>
@@ -2572,22 +2607,22 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>2118</v>
+        <v>3997</v>
       </c>
       <c r="F104" s="13">
-        <v>3997</v>
+        <v>4933</v>
       </c>
       <c r="G104" s="13">
-        <v>4933</v>
+        <v>2735</v>
       </c>
       <c r="H104" s="13">
-        <v>2735</v>
+        <v>20516</v>
       </c>
       <c r="I104" s="13">
-        <v>20571</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108071</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>15</v>
       </c>
@@ -2596,22 +2631,22 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>1406</v>
+        <v>6362</v>
       </c>
       <c r="F105" s="11">
-        <v>6362</v>
+        <v>363</v>
       </c>
       <c r="G105" s="11">
-        <v>363</v>
+        <v>883</v>
       </c>
       <c r="H105" s="11">
-        <v>883</v>
+        <v>11388</v>
       </c>
       <c r="I105" s="11">
-        <v>10462</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177487</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>16</v>
       </c>
@@ -2620,44 +2655,44 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>585</v>
+        <v>1651</v>
       </c>
       <c r="F106" s="13">
-        <v>1651</v>
+        <v>3705</v>
       </c>
       <c r="G106" s="13">
-        <v>3705</v>
+        <v>402</v>
       </c>
       <c r="H106" s="13">
-        <v>402</v>
+        <v>3480</v>
       </c>
       <c r="I106" s="13">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67513</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>4109</v>
+        <v>12010</v>
       </c>
       <c r="F107" s="15">
-        <v>12010</v>
+        <v>9001</v>
       </c>
       <c r="G107" s="15">
-        <v>9001</v>
+        <v>4020</v>
       </c>
       <c r="H107" s="15">
-        <v>4020</v>
+        <v>35384</v>
       </c>
       <c r="I107" s="15">
-        <v>34489</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>353071</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2669,7 +2704,7 @@
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>21</v>
       </c>
@@ -2680,20 +2715,20 @@
       <c r="E109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>13</v>
+      <c r="F109" s="11">
+        <v>11828</v>
       </c>
       <c r="G109" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H109" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I109" s="11">
-        <v>12409</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>52</v>
       </c>
@@ -2703,38 +2738,38 @@
         <v>0</v>
       </c>
       <c r="F110" s="17">
-        <v>0</v>
+        <v>11828</v>
       </c>
       <c r="G110" s="17">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="H110" s="17">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="I110" s="17">
-        <v>12409</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="F111" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="G111" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="H111" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="I111" s="15">
-        <v>2757437</v>
+        <v>3640463</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF96CE0-AD88-475C-9B20-0C6FFCFE6E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABE77D-5C00-4CF2-B449-DE690E094F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -651,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I111"/>
+  <dimension ref="B1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -669,8 +684,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,8 +701,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -693,8 +718,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -703,8 +733,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,8 +750,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -727,8 +767,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,8 +782,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -759,8 +809,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -769,10 +834,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -781,128 +851,208 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>13462</v>
+      </c>
+      <c r="F12" s="13">
+        <v>14651</v>
+      </c>
+      <c r="G12" s="13">
+        <v>16581</v>
+      </c>
+      <c r="H12" s="13">
+        <v>7053</v>
+      </c>
+      <c r="I12" s="13">
+        <v>13360</v>
+      </c>
+      <c r="J12" s="13">
         <v>8837</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>7754</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>11452</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>10757</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>10883</v>
+      </c>
+      <c r="F13" s="11">
+        <v>12550</v>
+      </c>
+      <c r="G13" s="11">
+        <v>15265</v>
+      </c>
+      <c r="H13" s="11">
+        <v>7149</v>
+      </c>
+      <c r="I13" s="11">
+        <v>12786</v>
+      </c>
+      <c r="J13" s="11">
         <v>10714</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>9733</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>16486</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>16617</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>9826</v>
+      </c>
+      <c r="F14" s="13">
+        <v>10274</v>
+      </c>
+      <c r="G14" s="13">
+        <v>15119</v>
+      </c>
+      <c r="H14" s="13">
+        <v>8434</v>
+      </c>
+      <c r="I14" s="13">
+        <v>13738</v>
+      </c>
+      <c r="J14" s="13">
         <v>11473</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>9152</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>13306</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>14049</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>34171</v>
+      </c>
+      <c r="F15" s="15">
+        <v>37475</v>
+      </c>
+      <c r="G15" s="15">
+        <v>46965</v>
+      </c>
+      <c r="H15" s="15">
+        <v>22636</v>
+      </c>
+      <c r="I15" s="15">
+        <v>39884</v>
+      </c>
+      <c r="J15" s="15">
         <v>31024</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>26639</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>41244</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>41423</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -911,128 +1061,208 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>6</v>
+      </c>
+      <c r="F18" s="13">
+        <v>12</v>
+      </c>
+      <c r="G18" s="13">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13">
+        <v>7</v>
+      </c>
+      <c r="I18" s="13">
+        <v>43</v>
+      </c>
+      <c r="J18" s="13">
         <v>63</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13">
         <v>26</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>178</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>5</v>
+      </c>
+      <c r="F19" s="11">
+        <v>29</v>
+      </c>
+      <c r="G19" s="11">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11">
+        <v>21</v>
+      </c>
+      <c r="I19" s="11">
+        <v>68</v>
+      </c>
+      <c r="J19" s="11">
         <v>295</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>576</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>486</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>9</v>
+      </c>
+      <c r="F20" s="13">
+        <v>37</v>
+      </c>
+      <c r="G20" s="13">
+        <v>13</v>
+      </c>
+      <c r="H20" s="13">
+        <v>10</v>
+      </c>
+      <c r="I20" s="13">
+        <v>16</v>
+      </c>
+      <c r="J20" s="13">
         <v>35</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>20</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>198</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15">
+        <v>78</v>
+      </c>
+      <c r="G21" s="15">
+        <v>35</v>
+      </c>
+      <c r="H21" s="15">
+        <v>38</v>
+      </c>
+      <c r="I21" s="15">
+        <v>127</v>
+      </c>
+      <c r="J21" s="15">
         <v>393</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
         <v>622</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>862</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>631</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1041,34 +1271,54 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1087,76 +1337,136 @@
       <c r="I24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>13</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>13</v>
+      <c r="F26" s="17">
+        <v>0</v>
       </c>
       <c r="G26" s="17">
         <v>0</v>
       </c>
-      <c r="H26" s="17">
-        <v>0</v>
+      <c r="H26" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>34191</v>
+      </c>
+      <c r="F27" s="15">
+        <v>37553</v>
+      </c>
+      <c r="G27" s="15">
+        <v>47000</v>
+      </c>
+      <c r="H27" s="15">
+        <v>22674</v>
+      </c>
+      <c r="I27" s="15">
+        <v>40011</v>
+      </c>
+      <c r="J27" s="15">
         <v>31417</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
+      <c r="K27" s="15">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <v>27261</v>
       </c>
-      <c r="H27" s="15">
+      <c r="M27" s="15">
         <v>42106</v>
       </c>
-      <c r="I27" s="15">
+      <c r="N27" s="15">
         <v>42054</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1165,8 +1475,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1175,8 +1490,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1185,10 +1505,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1207,8 +1532,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1217,10 +1557,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1229,128 +1574,208 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
+        <v>1762274</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2222680</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2724563</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1475182</v>
+      </c>
+      <c r="I35" s="13">
+        <v>3026229</v>
+      </c>
+      <c r="J35" s="13">
         <v>2139558</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="13">
+      <c r="K35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13">
         <v>2242593</v>
       </c>
-      <c r="H35" s="13">
+      <c r="M35" s="13">
         <v>3483135</v>
       </c>
-      <c r="I35" s="13">
+      <c r="N35" s="13">
         <v>3778962</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>1268861</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1875024</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2223627</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1097653</v>
+      </c>
+      <c r="I36" s="11">
+        <v>2315381</v>
+      </c>
+      <c r="J36" s="11">
         <v>2000284</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11">
         <v>2155377</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>3858958</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>4291091</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>704863</v>
+      </c>
+      <c r="F37" s="13">
+        <v>876128</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1437857</v>
+      </c>
+      <c r="H37" s="13">
+        <v>852892</v>
+      </c>
+      <c r="I37" s="13">
+        <v>1571636</v>
+      </c>
+      <c r="J37" s="13">
         <v>1206770</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="13">
         <v>1258059</v>
       </c>
-      <c r="H37" s="13">
+      <c r="M37" s="13">
         <v>1884248</v>
       </c>
-      <c r="I37" s="13">
+      <c r="N37" s="13">
         <v>2058189</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
+        <v>3735998</v>
+      </c>
+      <c r="F38" s="15">
+        <v>4973832</v>
+      </c>
+      <c r="G38" s="15">
+        <v>6386047</v>
+      </c>
+      <c r="H38" s="15">
+        <v>3425727</v>
+      </c>
+      <c r="I38" s="15">
+        <v>6913246</v>
+      </c>
+      <c r="J38" s="15">
         <v>5346612</v>
       </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15">
         <v>5656029</v>
       </c>
-      <c r="H38" s="15">
+      <c r="M38" s="15">
         <v>9226341</v>
       </c>
-      <c r="I38" s="15">
+      <c r="N38" s="15">
         <v>10128242</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1359,128 +1784,208 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>1551</v>
+      </c>
+      <c r="F41" s="13">
+        <v>3067</v>
+      </c>
+      <c r="G41" s="13">
+        <v>3395</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1757</v>
+      </c>
+      <c r="I41" s="13">
+        <v>10804</v>
+      </c>
+      <c r="J41" s="13">
         <v>16464</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13">
         <v>9666</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>84350</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>37306</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>628</v>
+      </c>
+      <c r="F42" s="11">
+        <v>3433</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1257</v>
+      </c>
+      <c r="H42" s="11">
+        <v>2679</v>
+      </c>
+      <c r="I42" s="11">
+        <v>10226</v>
+      </c>
+      <c r="J42" s="11">
         <v>44525</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
         <v>46649</v>
       </c>
-      <c r="H42" s="11">
+      <c r="M42" s="11">
         <v>69197</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>73912</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
+        <v>1307</v>
+      </c>
+      <c r="F43" s="13">
+        <v>7021</v>
+      </c>
+      <c r="G43" s="13">
+        <v>3341</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1426</v>
+      </c>
+      <c r="I43" s="13">
+        <v>3002</v>
+      </c>
+      <c r="J43" s="13">
         <v>7435</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="K43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="13">
         <v>3445</v>
       </c>
-      <c r="H43" s="13">
+      <c r="M43" s="13">
         <v>34152</v>
       </c>
-      <c r="I43" s="13">
+      <c r="N43" s="13">
         <v>33798</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
+        <v>3486</v>
+      </c>
+      <c r="F44" s="15">
+        <v>13521</v>
+      </c>
+      <c r="G44" s="15">
+        <v>7993</v>
+      </c>
+      <c r="H44" s="15">
+        <v>5862</v>
+      </c>
+      <c r="I44" s="15">
+        <v>24032</v>
+      </c>
+      <c r="J44" s="15">
         <v>68424</v>
       </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="15">
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
         <v>59760</v>
       </c>
-      <c r="H44" s="15">
+      <c r="M44" s="15">
         <v>187699</v>
       </c>
-      <c r="I44" s="15">
+      <c r="N44" s="15">
         <v>145016</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1489,34 +1994,54 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11">
+        <v>18</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11">
         <v>14639</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>25600</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>11917</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -1527,86 +2052,146 @@
         <v>0</v>
       </c>
       <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="17">
+        <v>0</v>
+      </c>
+      <c r="I47" s="17">
+        <v>0</v>
+      </c>
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
         <v>14639</v>
       </c>
-      <c r="H47" s="17">
+      <c r="M47" s="17">
         <v>25600</v>
       </c>
-      <c r="I47" s="17">
+      <c r="N47" s="17">
         <v>11917</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>13</v>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
         <v>0</v>
       </c>
-      <c r="F49" s="17" t="s">
-        <v>13</v>
+      <c r="F49" s="17">
+        <v>0</v>
       </c>
       <c r="G49" s="17">
         <v>0</v>
       </c>
-      <c r="H49" s="17">
-        <v>0</v>
+      <c r="H49" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="17">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
+        <v>3739484</v>
+      </c>
+      <c r="F50" s="15">
+        <v>4987353</v>
+      </c>
+      <c r="G50" s="15">
+        <v>6394040</v>
+      </c>
+      <c r="H50" s="15">
+        <v>3431589</v>
+      </c>
+      <c r="I50" s="15">
+        <v>6937278</v>
+      </c>
+      <c r="J50" s="15">
         <v>5415036</v>
       </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="15">
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
         <v>5730428</v>
       </c>
-      <c r="H50" s="15">
+      <c r="M50" s="15">
         <v>9439640</v>
       </c>
-      <c r="I50" s="15">
+      <c r="N50" s="15">
         <v>10285175</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1615,8 +2200,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1625,8 +2215,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1635,10 +2230,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1657,8 +2257,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1667,10 +2282,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1679,106 +2299,171 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>130907295</v>
+      </c>
+      <c r="F58" s="13">
+        <v>151708416</v>
+      </c>
+      <c r="G58" s="13">
+        <v>164318376</v>
+      </c>
+      <c r="H58" s="13">
+        <v>209156671</v>
+      </c>
+      <c r="I58" s="13">
+        <v>226514147</v>
+      </c>
+      <c r="J58" s="13">
         <v>237043873</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>243325015</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>289217565</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>304150803</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>351302594</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>116591105</v>
+      </c>
+      <c r="F59" s="11">
+        <v>149404303</v>
+      </c>
+      <c r="G59" s="11">
+        <v>145668326</v>
+      </c>
+      <c r="H59" s="11">
+        <v>153539376</v>
+      </c>
+      <c r="I59" s="11">
+        <v>181087205</v>
+      </c>
+      <c r="J59" s="11">
         <v>186698152</v>
       </c>
-      <c r="F59" s="11">
+      <c r="K59" s="11">
         <v>190538489</v>
       </c>
-      <c r="G59" s="11">
+      <c r="L59" s="11">
         <v>221450426</v>
       </c>
-      <c r="H59" s="11">
+      <c r="M59" s="11">
         <v>234074851</v>
       </c>
-      <c r="I59" s="11">
+      <c r="N59" s="11">
         <v>258235000</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>71734480</v>
+      </c>
+      <c r="F60" s="13">
+        <v>85276231</v>
+      </c>
+      <c r="G60" s="13">
+        <v>95102652</v>
+      </c>
+      <c r="H60" s="13">
+        <v>101125445</v>
+      </c>
+      <c r="I60" s="13">
+        <v>114400641</v>
+      </c>
+      <c r="J60" s="13">
         <v>105192643</v>
       </c>
-      <c r="F60" s="13">
+      <c r="K60" s="13">
         <v>113863096</v>
       </c>
-      <c r="G60" s="13">
+      <c r="L60" s="13">
         <v>137462740</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>141608898</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>146500747</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -1787,106 +2472,171 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
+        <v>258500000</v>
+      </c>
+      <c r="F63" s="13">
+        <v>255583333</v>
+      </c>
+      <c r="G63" s="13">
+        <v>282916667</v>
+      </c>
+      <c r="H63" s="13">
+        <v>251000000</v>
+      </c>
+      <c r="I63" s="13">
+        <v>251255814</v>
+      </c>
+      <c r="J63" s="13">
         <v>265548387</v>
       </c>
-      <c r="F63" s="13">
+      <c r="K63" s="13">
         <v>322276316</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>371769231</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>473876404</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>409956044</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>125600000</v>
+      </c>
+      <c r="F64" s="11">
+        <v>118379310</v>
+      </c>
+      <c r="G64" s="11">
+        <v>125700000</v>
+      </c>
+      <c r="H64" s="11">
+        <v>127571429</v>
+      </c>
+      <c r="I64" s="11">
+        <v>150382353</v>
+      </c>
+      <c r="J64" s="11">
         <v>150932203</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>94268546</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>80987847</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>142380658</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>202498630</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
+        <v>145222222</v>
+      </c>
+      <c r="F65" s="13">
+        <v>189756757</v>
+      </c>
+      <c r="G65" s="13">
+        <v>257000000</v>
+      </c>
+      <c r="H65" s="13">
+        <v>142600000</v>
+      </c>
+      <c r="I65" s="13">
+        <v>187625000</v>
+      </c>
+      <c r="J65" s="13">
         <v>212428571</v>
       </c>
-      <c r="F65" s="13">
+      <c r="K65" s="13">
         <v>175292683</v>
       </c>
-      <c r="G65" s="13">
+      <c r="L65" s="13">
         <v>172250000</v>
       </c>
-      <c r="H65" s="13">
+      <c r="M65" s="13">
         <v>172484848</v>
       </c>
-      <c r="I65" s="13">
+      <c r="N65" s="13">
         <v>193131429</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1895,32 +2645,52 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1929,8 +2699,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1939,8 +2714,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1949,10 +2729,15 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B71" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -1971,8 +2756,23 @@
       <c r="I71" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1981,10 +2781,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -1993,128 +2798,208 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>-1134143</v>
+      </c>
+      <c r="F75" s="13">
+        <v>-1533893</v>
+      </c>
+      <c r="G75" s="13">
+        <v>-2175989</v>
+      </c>
+      <c r="H75" s="13">
+        <v>-1091701</v>
+      </c>
+      <c r="I75" s="13">
+        <v>-1994160</v>
+      </c>
+      <c r="J75" s="13">
         <v>-1517322</v>
       </c>
-      <c r="F75" s="13">
+      <c r="K75" s="13">
         <v>-2046685</v>
       </c>
-      <c r="G75" s="13">
+      <c r="L75" s="13">
         <v>-1504719</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>-2227176</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>-2311877</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>-835917</v>
+      </c>
+      <c r="F76" s="11">
+        <v>-1195983</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-1740541</v>
+      </c>
+      <c r="H76" s="11">
+        <v>-861162</v>
+      </c>
+      <c r="I76" s="11">
+        <v>-1835630</v>
+      </c>
+      <c r="J76" s="11">
         <v>-1637348</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-2153379</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>-1710430</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>-2894705</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-3020615</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>-439832</v>
+      </c>
+      <c r="F77" s="13">
+        <v>-537772</v>
+      </c>
+      <c r="G77" s="13">
+        <v>-1142757</v>
+      </c>
+      <c r="H77" s="13">
+        <v>-762853</v>
+      </c>
+      <c r="I77" s="13">
+        <v>-1287844</v>
+      </c>
+      <c r="J77" s="13">
         <v>-1037358</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>-1323228</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>-1002838</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>-1443000</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>-1513782</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
+        <v>-2409892</v>
+      </c>
+      <c r="F78" s="15">
+        <v>-3267648</v>
+      </c>
+      <c r="G78" s="15">
+        <v>-5059287</v>
+      </c>
+      <c r="H78" s="15">
+        <v>-2715716</v>
+      </c>
+      <c r="I78" s="15">
+        <v>-5117634</v>
+      </c>
+      <c r="J78" s="15">
         <v>-4192028</v>
       </c>
-      <c r="F78" s="15">
+      <c r="K78" s="15">
         <v>-5523292</v>
       </c>
-      <c r="G78" s="15">
+      <c r="L78" s="15">
         <v>-4217987</v>
       </c>
-      <c r="H78" s="15">
+      <c r="M78" s="15">
         <v>-6564881</v>
       </c>
-      <c r="I78" s="15">
+      <c r="N78" s="15">
         <v>-6846274</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2123,128 +3008,208 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>-848</v>
+      </c>
+      <c r="F81" s="13">
+        <v>-2199</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-3046</v>
+      </c>
+      <c r="H81" s="13">
+        <v>-1670</v>
+      </c>
+      <c r="I81" s="13">
+        <v>-8686</v>
+      </c>
+      <c r="J81" s="13">
         <v>-12467</v>
       </c>
-      <c r="F81" s="13">
+      <c r="K81" s="13">
         <v>-19560</v>
       </c>
-      <c r="G81" s="13">
+      <c r="L81" s="13">
         <v>-6931</v>
       </c>
-      <c r="H81" s="13">
+      <c r="M81" s="13">
         <v>-63834</v>
       </c>
-      <c r="I81" s="13">
+      <c r="N81" s="13">
         <v>70765</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-370</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-2155</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-963</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-2214</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-8820</v>
+      </c>
+      <c r="J82" s="11">
         <v>-38163</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>-63174</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-45766</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>-57809</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>103575</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>-391</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-5433</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-2419</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-1328</v>
+      </c>
+      <c r="I83" s="13">
+        <v>-2417</v>
+      </c>
+      <c r="J83" s="13">
         <v>-5784</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>-10669</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>-3043</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>-30672</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>33715</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
+        <v>-1609</v>
+      </c>
+      <c r="F84" s="15">
+        <v>-9787</v>
+      </c>
+      <c r="G84" s="15">
+        <v>-6428</v>
+      </c>
+      <c r="H84" s="15">
+        <v>-5212</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-19923</v>
+      </c>
+      <c r="J84" s="15">
         <v>-56414</v>
       </c>
-      <c r="F84" s="15">
+      <c r="K84" s="15">
         <v>-93403</v>
       </c>
-      <c r="G84" s="15">
+      <c r="L84" s="15">
         <v>-55740</v>
       </c>
-      <c r="H84" s="15">
+      <c r="M84" s="15">
         <v>-152315</v>
       </c>
-      <c r="I84" s="15">
+      <c r="N84" s="15">
         <v>208055</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2253,34 +3218,54 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11">
+        <v>18</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="11">
         <v>-33207</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>-13000</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-14458</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-6493</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -2288,48 +3273,78 @@
         <v>0</v>
       </c>
       <c r="F87" s="17">
+        <v>0</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
+      <c r="H87" s="17">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
         <v>-33207</v>
       </c>
-      <c r="G87" s="17">
+      <c r="L87" s="17">
         <v>-13000</v>
       </c>
-      <c r="H87" s="17">
+      <c r="M87" s="17">
         <v>-14458</v>
       </c>
-      <c r="I87" s="17">
+      <c r="N87" s="17">
         <v>-6493</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D88" s="15"/>
-      <c r="E88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>13</v>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>0</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N88" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17">
@@ -2341,36 +3356,66 @@
       <c r="G89" s="17">
         <v>0</v>
       </c>
-      <c r="H89" s="17">
-        <v>0</v>
+      <c r="H89" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I89" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
+        <v>-2411501</v>
+      </c>
+      <c r="F90" s="15">
+        <v>-3277435</v>
+      </c>
+      <c r="G90" s="15">
+        <v>-5065715</v>
+      </c>
+      <c r="H90" s="15">
+        <v>-2720928</v>
+      </c>
+      <c r="I90" s="15">
+        <v>-5137557</v>
+      </c>
+      <c r="J90" s="15">
         <v>-4248442</v>
       </c>
-      <c r="F90" s="15">
+      <c r="K90" s="15">
         <v>-5649902</v>
       </c>
-      <c r="G90" s="15">
+      <c r="L90" s="15">
         <v>-4286727</v>
       </c>
-      <c r="H90" s="15">
+      <c r="M90" s="15">
         <v>-6731654</v>
       </c>
-      <c r="I90" s="15">
+      <c r="N90" s="15">
         <v>-6644712</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2379,8 +3424,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2389,8 +3439,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2399,10 +3454,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2421,8 +3481,23 @@
       <c r="I94" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2431,10 +3506,15 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -2443,128 +3523,208 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>628131</v>
+      </c>
+      <c r="F98" s="13">
+        <v>688787</v>
+      </c>
+      <c r="G98" s="13">
+        <v>548574</v>
+      </c>
+      <c r="H98" s="13">
+        <v>383481</v>
+      </c>
+      <c r="I98" s="13">
+        <v>1031789</v>
+      </c>
+      <c r="J98" s="13">
         <v>622236</v>
       </c>
-      <c r="F98" s="13">
+      <c r="K98" s="13">
         <v>810194</v>
       </c>
-      <c r="G98" s="13">
+      <c r="L98" s="13">
         <v>737874</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>1255959</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>1467085</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>432944</v>
+      </c>
+      <c r="F99" s="11">
+        <v>679041</v>
+      </c>
+      <c r="G99" s="11">
+        <v>483086</v>
+      </c>
+      <c r="H99" s="11">
+        <v>236491</v>
+      </c>
+      <c r="I99" s="11">
+        <v>479751</v>
+      </c>
+      <c r="J99" s="11">
         <v>362936</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>512445</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>444947</v>
       </c>
-      <c r="H99" s="11">
+      <c r="M99" s="11">
         <v>964253</v>
       </c>
-      <c r="I99" s="11">
+      <c r="N99" s="11">
         <v>1270476</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>265031</v>
+      </c>
+      <c r="F100" s="13">
+        <v>338356</v>
+      </c>
+      <c r="G100" s="13">
+        <v>295100</v>
+      </c>
+      <c r="H100" s="13">
+        <v>90039</v>
+      </c>
+      <c r="I100" s="13">
+        <v>283792</v>
+      </c>
+      <c r="J100" s="13">
         <v>169412</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>335188</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>255221</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>441248</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>544407</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
+        <v>1326106</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1706184</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1326760</v>
+      </c>
+      <c r="H101" s="15">
+        <v>710011</v>
+      </c>
+      <c r="I101" s="15">
+        <v>1795332</v>
+      </c>
+      <c r="J101" s="15">
         <v>1154584</v>
       </c>
-      <c r="F101" s="15">
+      <c r="K101" s="15">
         <v>1657827</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>1438042</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>2661460</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>3281968</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2573,128 +3733,208 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="11">
+        <v>0</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
+        <v>703</v>
+      </c>
+      <c r="F104" s="13">
+        <v>868</v>
+      </c>
+      <c r="G104" s="13">
+        <v>349</v>
+      </c>
+      <c r="H104" s="13">
+        <v>87</v>
+      </c>
+      <c r="I104" s="13">
+        <v>2118</v>
+      </c>
+      <c r="J104" s="13">
         <v>3997</v>
       </c>
-      <c r="F104" s="13">
+      <c r="K104" s="13">
         <v>4933</v>
       </c>
-      <c r="G104" s="13">
+      <c r="L104" s="13">
         <v>2735</v>
       </c>
-      <c r="H104" s="13">
+      <c r="M104" s="13">
         <v>20516</v>
       </c>
-      <c r="I104" s="13">
+      <c r="N104" s="13">
         <v>108071</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
+        <v>258</v>
+      </c>
+      <c r="F105" s="11">
+        <v>1278</v>
+      </c>
+      <c r="G105" s="11">
+        <v>294</v>
+      </c>
+      <c r="H105" s="11">
+        <v>465</v>
+      </c>
+      <c r="I105" s="11">
+        <v>1406</v>
+      </c>
+      <c r="J105" s="11">
         <v>6362</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>363</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>883</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>11388</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>177487</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
+        <v>916</v>
+      </c>
+      <c r="F106" s="13">
+        <v>1588</v>
+      </c>
+      <c r="G106" s="13">
+        <v>922</v>
+      </c>
+      <c r="H106" s="13">
+        <v>98</v>
+      </c>
+      <c r="I106" s="13">
+        <v>585</v>
+      </c>
+      <c r="J106" s="13">
         <v>1651</v>
       </c>
-      <c r="F106" s="13">
+      <c r="K106" s="13">
         <v>3705</v>
       </c>
-      <c r="G106" s="13">
+      <c r="L106" s="13">
         <v>402</v>
       </c>
-      <c r="H106" s="13">
+      <c r="M106" s="13">
         <v>3480</v>
       </c>
-      <c r="I106" s="13">
+      <c r="N106" s="13">
         <v>67513</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>1877</v>
+      </c>
+      <c r="F107" s="15">
+        <v>3734</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1565</v>
+      </c>
+      <c r="H107" s="15">
+        <v>650</v>
+      </c>
+      <c r="I107" s="15">
+        <v>4109</v>
+      </c>
+      <c r="J107" s="15">
         <v>12010</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>9001</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>4020</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>35384</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>353071</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -2703,34 +3943,54 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F109" s="11">
+        <v>18</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K109" s="11">
         <v>11828</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>1639</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>11142</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>5424</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
@@ -2738,37 +3998,67 @@
         <v>0</v>
       </c>
       <c r="F110" s="17">
+        <v>0</v>
+      </c>
+      <c r="G110" s="17">
+        <v>0</v>
+      </c>
+      <c r="H110" s="17">
+        <v>0</v>
+      </c>
+      <c r="I110" s="17">
+        <v>0</v>
+      </c>
+      <c r="J110" s="17">
+        <v>0</v>
+      </c>
+      <c r="K110" s="17">
         <v>11828</v>
       </c>
-      <c r="G110" s="17">
+      <c r="L110" s="17">
         <v>1639</v>
       </c>
-      <c r="H110" s="17">
+      <c r="M110" s="17">
         <v>11142</v>
       </c>
-      <c r="I110" s="17">
+      <c r="N110" s="17">
         <v>5424</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
+        <v>1327983</v>
+      </c>
+      <c r="F111" s="15">
+        <v>1709918</v>
+      </c>
+      <c r="G111" s="15">
+        <v>1328325</v>
+      </c>
+      <c r="H111" s="15">
+        <v>710661</v>
+      </c>
+      <c r="I111" s="15">
+        <v>1799441</v>
+      </c>
+      <c r="J111" s="15">
         <v>1166594</v>
       </c>
-      <c r="F111" s="15">
+      <c r="K111" s="15">
         <v>1678656</v>
       </c>
-      <c r="G111" s="15">
+      <c r="L111" s="15">
         <v>1443701</v>
       </c>
-      <c r="H111" s="15">
+      <c r="M111" s="15">
         <v>2707986</v>
       </c>
-      <c r="I111" s="15">
+      <c r="N111" s="15">
         <v>3640463</v>
       </c>
     </row>

--- a/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ABE77D-5C00-4CF2-B449-DE690E094F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9F857-4EB9-4241-A118-19658C18D6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -670,12 +670,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -690,7 +690,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -739,7 +739,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -788,7 +788,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -825,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -840,7 +840,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -880,11 +880,11 @@
       <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>18</v>
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -905,37 +905,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>13462</v>
+        <v>14651</v>
       </c>
       <c r="F12" s="13">
-        <v>14651</v>
+        <v>16581</v>
       </c>
       <c r="G12" s="13">
-        <v>16581</v>
+        <v>7053</v>
       </c>
       <c r="H12" s="13">
-        <v>7053</v>
+        <v>13360</v>
       </c>
       <c r="I12" s="13">
-        <v>13360</v>
-      </c>
-      <c r="J12" s="13">
         <v>8837</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>7754</v>
       </c>
       <c r="L12" s="13">
-        <v>7754</v>
+        <v>11452</v>
       </c>
       <c r="M12" s="13">
-        <v>11452</v>
+        <v>10757</v>
       </c>
       <c r="N12" s="13">
-        <v>10757</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14406</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -944,37 +944,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>10883</v>
+        <v>12550</v>
       </c>
       <c r="F13" s="11">
-        <v>12550</v>
+        <v>15265</v>
       </c>
       <c r="G13" s="11">
-        <v>15265</v>
+        <v>7149</v>
       </c>
       <c r="H13" s="11">
-        <v>7149</v>
+        <v>12786</v>
       </c>
       <c r="I13" s="11">
-        <v>12786</v>
-      </c>
-      <c r="J13" s="11">
         <v>10714</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>9733</v>
       </c>
       <c r="L13" s="11">
-        <v>9733</v>
+        <v>16486</v>
       </c>
       <c r="M13" s="11">
-        <v>16486</v>
+        <v>16617</v>
       </c>
       <c r="N13" s="11">
-        <v>16617</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19738</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -983,74 +983,74 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>9826</v>
+        <v>10274</v>
       </c>
       <c r="F14" s="13">
-        <v>10274</v>
+        <v>15119</v>
       </c>
       <c r="G14" s="13">
-        <v>15119</v>
+        <v>8434</v>
       </c>
       <c r="H14" s="13">
-        <v>8434</v>
+        <v>13738</v>
       </c>
       <c r="I14" s="13">
-        <v>13738</v>
-      </c>
-      <c r="J14" s="13">
         <v>11473</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>9152</v>
       </c>
       <c r="L14" s="13">
-        <v>9152</v>
+        <v>13306</v>
       </c>
       <c r="M14" s="13">
-        <v>13306</v>
+        <v>14049</v>
       </c>
       <c r="N14" s="13">
-        <v>14049</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17621</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>34171</v>
+        <v>37475</v>
       </c>
       <c r="F15" s="15">
-        <v>37475</v>
+        <v>46965</v>
       </c>
       <c r="G15" s="15">
-        <v>46965</v>
+        <v>22636</v>
       </c>
       <c r="H15" s="15">
-        <v>22636</v>
+        <v>39884</v>
       </c>
       <c r="I15" s="15">
-        <v>39884</v>
+        <v>31024</v>
       </c>
       <c r="J15" s="15">
-        <v>31024</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>26639</v>
       </c>
       <c r="L15" s="15">
-        <v>26639</v>
+        <v>41244</v>
       </c>
       <c r="M15" s="15">
-        <v>41244</v>
+        <v>41423</v>
       </c>
       <c r="N15" s="15">
-        <v>41423</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51765</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1090,11 +1090,11 @@
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>18</v>
@@ -1106,7 +1106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1115,37 +1115,37 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F18" s="13">
         <v>12</v>
       </c>
       <c r="G18" s="13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H18" s="13">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I18" s="13">
-        <v>43</v>
-      </c>
-      <c r="J18" s="13">
         <v>63</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>18</v>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13">
+        <v>26</v>
       </c>
       <c r="L18" s="13">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="M18" s="13">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="N18" s="13">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1154,37 +1154,37 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F19" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G19" s="11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H19" s="11">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I19" s="11">
-        <v>68</v>
-      </c>
-      <c r="J19" s="11">
         <v>295</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11">
+        <v>576</v>
       </c>
       <c r="L19" s="11">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="M19" s="11">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="N19" s="11">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1193,74 +1193,74 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F20" s="13">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G20" s="13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H20" s="13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I20" s="13">
-        <v>16</v>
-      </c>
-      <c r="J20" s="13">
         <v>35</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13">
+        <v>20</v>
       </c>
       <c r="L20" s="13">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="M20" s="13">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="N20" s="13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F21" s="15">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="G21" s="15">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21" s="15">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="I21" s="15">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="J21" s="15">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="L21" s="15">
-        <v>622</v>
+        <v>862</v>
       </c>
       <c r="M21" s="15">
-        <v>862</v>
+        <v>631</v>
       </c>
       <c r="N21" s="15">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4843</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="J23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
+      <c r="K23" s="11">
+        <v>0</v>
       </c>
       <c r="L23" s="11">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1367,8 +1367,8 @@
       <c r="F25" s="15">
         <v>0</v>
       </c>
-      <c r="G25" s="15">
-        <v>0</v>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>18</v>
@@ -1392,7 +1392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>31</v>
       </c>
@@ -1404,20 +1404,20 @@
       <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>18</v>
+      <c r="G26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
       </c>
       <c r="I26" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>18</v>
+      <c r="J26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
       </c>
       <c r="L26" s="17">
         <v>0</v>
@@ -1429,44 +1429,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>34191</v>
+        <v>37553</v>
       </c>
       <c r="F27" s="15">
-        <v>37553</v>
+        <v>47000</v>
       </c>
       <c r="G27" s="15">
-        <v>47000</v>
+        <v>22674</v>
       </c>
       <c r="H27" s="15">
-        <v>22674</v>
+        <v>40011</v>
       </c>
       <c r="I27" s="15">
-        <v>40011</v>
+        <v>31417</v>
       </c>
       <c r="J27" s="15">
-        <v>31417</v>
+        <v>0</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>27261</v>
       </c>
       <c r="L27" s="15">
-        <v>27261</v>
+        <v>42106</v>
       </c>
       <c r="M27" s="15">
-        <v>42106</v>
+        <v>42054</v>
       </c>
       <c r="N27" s="15">
-        <v>42054</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56608</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1481,7 +1481,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1511,7 +1511,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1563,7 +1563,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1603,11 +1603,11 @@
       <c r="I34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>18</v>
@@ -1619,7 +1619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1628,37 +1628,37 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>1762274</v>
+        <v>2222680</v>
       </c>
       <c r="F35" s="13">
-        <v>2222680</v>
+        <v>2724563</v>
       </c>
       <c r="G35" s="13">
-        <v>2724563</v>
+        <v>1475182</v>
       </c>
       <c r="H35" s="13">
-        <v>1475182</v>
+        <v>3026229</v>
       </c>
       <c r="I35" s="13">
-        <v>3026229</v>
-      </c>
-      <c r="J35" s="13">
         <v>2139558</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>18</v>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="13">
+        <v>2242593</v>
       </c>
       <c r="L35" s="13">
-        <v>2242593</v>
+        <v>3483135</v>
       </c>
       <c r="M35" s="13">
-        <v>3483135</v>
+        <v>3778962</v>
       </c>
       <c r="N35" s="13">
-        <v>3778962</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4182975</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1667,37 +1667,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>1268861</v>
+        <v>1875024</v>
       </c>
       <c r="F36" s="11">
-        <v>1875024</v>
+        <v>2223627</v>
       </c>
       <c r="G36" s="11">
-        <v>2223627</v>
+        <v>1097653</v>
       </c>
       <c r="H36" s="11">
-        <v>1097653</v>
+        <v>2315381</v>
       </c>
       <c r="I36" s="11">
-        <v>2315381</v>
-      </c>
-      <c r="J36" s="11">
         <v>2000284</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>2155377</v>
       </c>
       <c r="L36" s="11">
-        <v>2155377</v>
+        <v>3858958</v>
       </c>
       <c r="M36" s="11">
-        <v>3858958</v>
+        <v>4291091</v>
       </c>
       <c r="N36" s="11">
-        <v>4291091</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4675145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1706,74 +1706,74 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>704863</v>
+        <v>876128</v>
       </c>
       <c r="F37" s="13">
-        <v>876128</v>
+        <v>1437857</v>
       </c>
       <c r="G37" s="13">
-        <v>1437857</v>
+        <v>852892</v>
       </c>
       <c r="H37" s="13">
-        <v>852892</v>
+        <v>1571636</v>
       </c>
       <c r="I37" s="13">
-        <v>1571636</v>
-      </c>
-      <c r="J37" s="13">
         <v>1206770</v>
       </c>
-      <c r="K37" s="13" t="s">
-        <v>18</v>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1258059</v>
       </c>
       <c r="L37" s="13">
-        <v>1258059</v>
+        <v>1884248</v>
       </c>
       <c r="M37" s="13">
-        <v>1884248</v>
+        <v>2058189</v>
       </c>
       <c r="N37" s="13">
-        <v>2058189</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2532400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>3735998</v>
+        <v>4973832</v>
       </c>
       <c r="F38" s="15">
-        <v>4973832</v>
+        <v>6386047</v>
       </c>
       <c r="G38" s="15">
-        <v>6386047</v>
+        <v>3425727</v>
       </c>
       <c r="H38" s="15">
-        <v>3425727</v>
+        <v>6913246</v>
       </c>
       <c r="I38" s="15">
-        <v>6913246</v>
+        <v>5346612</v>
       </c>
       <c r="J38" s="15">
-        <v>5346612</v>
+        <v>0</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>5656029</v>
       </c>
       <c r="L38" s="15">
-        <v>5656029</v>
+        <v>9226341</v>
       </c>
       <c r="M38" s="15">
-        <v>9226341</v>
+        <v>10128242</v>
       </c>
       <c r="N38" s="15">
-        <v>10128242</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11390520</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1813,11 +1813,11 @@
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>18</v>
@@ -1829,7 +1829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
@@ -1838,37 +1838,37 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>1551</v>
+        <v>3067</v>
       </c>
       <c r="F41" s="13">
-        <v>3067</v>
+        <v>3395</v>
       </c>
       <c r="G41" s="13">
-        <v>3395</v>
+        <v>1757</v>
       </c>
       <c r="H41" s="13">
-        <v>1757</v>
+        <v>10804</v>
       </c>
       <c r="I41" s="13">
-        <v>10804</v>
-      </c>
-      <c r="J41" s="13">
         <v>16464</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>9666</v>
       </c>
       <c r="L41" s="13">
-        <v>9666</v>
+        <v>84350</v>
       </c>
       <c r="M41" s="13">
-        <v>84350</v>
+        <v>37306</v>
       </c>
       <c r="N41" s="13">
-        <v>37306</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
@@ -1877,37 +1877,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>628</v>
+        <v>3433</v>
       </c>
       <c r="F42" s="11">
-        <v>3433</v>
+        <v>1257</v>
       </c>
       <c r="G42" s="11">
-        <v>1257</v>
+        <v>2679</v>
       </c>
       <c r="H42" s="11">
-        <v>2679</v>
+        <v>10226</v>
       </c>
       <c r="I42" s="11">
-        <v>10226</v>
-      </c>
-      <c r="J42" s="11">
         <v>44525</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>46649</v>
       </c>
       <c r="L42" s="11">
-        <v>46649</v>
+        <v>69197</v>
       </c>
       <c r="M42" s="11">
-        <v>69197</v>
+        <v>73912</v>
       </c>
       <c r="N42" s="11">
-        <v>73912</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>655619</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
@@ -1916,74 +1916,74 @@
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13">
-        <v>1307</v>
+        <v>7021</v>
       </c>
       <c r="F43" s="13">
-        <v>7021</v>
+        <v>3341</v>
       </c>
       <c r="G43" s="13">
-        <v>3341</v>
+        <v>1426</v>
       </c>
       <c r="H43" s="13">
-        <v>1426</v>
+        <v>3002</v>
       </c>
       <c r="I43" s="13">
-        <v>3002</v>
-      </c>
-      <c r="J43" s="13">
         <v>7435</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>18</v>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13">
+        <v>3445</v>
       </c>
       <c r="L43" s="13">
-        <v>3445</v>
+        <v>34152</v>
       </c>
       <c r="M43" s="13">
-        <v>34152</v>
+        <v>33798</v>
       </c>
       <c r="N43" s="13">
-        <v>33798</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76796</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>3486</v>
+        <v>13521</v>
       </c>
       <c r="F44" s="15">
-        <v>13521</v>
+        <v>7993</v>
       </c>
       <c r="G44" s="15">
-        <v>7993</v>
+        <v>5862</v>
       </c>
       <c r="H44" s="15">
-        <v>5862</v>
+        <v>24032</v>
       </c>
       <c r="I44" s="15">
-        <v>24032</v>
+        <v>68424</v>
       </c>
       <c r="J44" s="15">
-        <v>68424</v>
+        <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>0</v>
+        <v>59760</v>
       </c>
       <c r="L44" s="15">
-        <v>59760</v>
+        <v>187699</v>
       </c>
       <c r="M44" s="15">
-        <v>187699</v>
+        <v>145016</v>
       </c>
       <c r="N44" s="15">
-        <v>145016</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>833567</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
@@ -2026,20 +2026,20 @@
       <c r="J46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>18</v>
+      <c r="K46" s="11">
+        <v>14639</v>
       </c>
       <c r="L46" s="11">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="M46" s="11">
-        <v>25600</v>
+        <v>11917</v>
       </c>
       <c r="N46" s="11">
-        <v>11917</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>28</v>
       </c>
@@ -2064,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="K47" s="17">
-        <v>0</v>
+        <v>14639</v>
       </c>
       <c r="L47" s="17">
-        <v>14639</v>
+        <v>25600</v>
       </c>
       <c r="M47" s="17">
-        <v>25600</v>
+        <v>11917</v>
       </c>
       <c r="N47" s="17">
-        <v>11917</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13085</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>29</v>
       </c>
@@ -2090,8 +2090,8 @@
       <c r="F48" s="15">
         <v>0</v>
       </c>
-      <c r="G48" s="15">
-        <v>0</v>
+      <c r="G48" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>18</v>
@@ -2115,7 +2115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>31</v>
       </c>
@@ -2129,20 +2129,20 @@
       <c r="F49" s="17">
         <v>0</v>
       </c>
-      <c r="G49" s="17">
-        <v>0</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>18</v>
+      <c r="G49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="17">
+        <v>0</v>
       </c>
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>18</v>
+      <c r="J49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0</v>
       </c>
       <c r="L49" s="17">
         <v>0</v>
@@ -2154,44 +2154,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>3739484</v>
+        <v>4987353</v>
       </c>
       <c r="F50" s="15">
-        <v>4987353</v>
+        <v>6394040</v>
       </c>
       <c r="G50" s="15">
-        <v>6394040</v>
+        <v>3431589</v>
       </c>
       <c r="H50" s="15">
-        <v>3431589</v>
+        <v>6937278</v>
       </c>
       <c r="I50" s="15">
-        <v>6937278</v>
+        <v>5415036</v>
       </c>
       <c r="J50" s="15">
-        <v>5415036</v>
+        <v>0</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>5730428</v>
       </c>
       <c r="L50" s="15">
-        <v>5730428</v>
+        <v>9439640</v>
       </c>
       <c r="M50" s="15">
-        <v>9439640</v>
+        <v>10285175</v>
       </c>
       <c r="N50" s="15">
-        <v>10285175</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12237172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2206,7 +2206,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2221,7 +2221,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2236,7 +2236,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2288,7 +2288,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>39</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -2353,37 +2353,37 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>130907295</v>
+        <v>151708416</v>
       </c>
       <c r="F58" s="13">
-        <v>151708416</v>
+        <v>164318376</v>
       </c>
       <c r="G58" s="13">
-        <v>164318376</v>
+        <v>209156671</v>
       </c>
       <c r="H58" s="13">
-        <v>209156671</v>
+        <v>226514147</v>
       </c>
       <c r="I58" s="13">
-        <v>226514147</v>
+        <v>237043873</v>
       </c>
       <c r="J58" s="13">
-        <v>237043873</v>
+        <v>243325015</v>
       </c>
       <c r="K58" s="13">
-        <v>243325015</v>
+        <v>289217565</v>
       </c>
       <c r="L58" s="13">
-        <v>289217565</v>
+        <v>304150803</v>
       </c>
       <c r="M58" s="13">
-        <v>304150803</v>
+        <v>351302594</v>
       </c>
       <c r="N58" s="13">
-        <v>351302594</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>290363390</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>20</v>
       </c>
@@ -2392,37 +2392,37 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>116591105</v>
+        <v>149404303</v>
       </c>
       <c r="F59" s="11">
-        <v>149404303</v>
+        <v>145668326</v>
       </c>
       <c r="G59" s="11">
-        <v>145668326</v>
+        <v>153539376</v>
       </c>
       <c r="H59" s="11">
-        <v>153539376</v>
+        <v>181087205</v>
       </c>
       <c r="I59" s="11">
-        <v>181087205</v>
+        <v>186698152</v>
       </c>
       <c r="J59" s="11">
-        <v>186698152</v>
+        <v>190538489</v>
       </c>
       <c r="K59" s="11">
-        <v>190538489</v>
+        <v>221450426</v>
       </c>
       <c r="L59" s="11">
-        <v>221450426</v>
+        <v>234074851</v>
       </c>
       <c r="M59" s="11">
-        <v>234074851</v>
+        <v>258235000</v>
       </c>
       <c r="N59" s="11">
-        <v>258235000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>236860118</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>21</v>
       </c>
@@ -2431,37 +2431,37 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>71734480</v>
+        <v>85276231</v>
       </c>
       <c r="F60" s="13">
-        <v>85276231</v>
+        <v>95102652</v>
       </c>
       <c r="G60" s="13">
-        <v>95102652</v>
+        <v>101125445</v>
       </c>
       <c r="H60" s="13">
-        <v>101125445</v>
+        <v>114400641</v>
       </c>
       <c r="I60" s="13">
-        <v>114400641</v>
+        <v>105192643</v>
       </c>
       <c r="J60" s="13">
-        <v>105192643</v>
+        <v>113863096</v>
       </c>
       <c r="K60" s="13">
-        <v>113863096</v>
+        <v>137462740</v>
       </c>
       <c r="L60" s="13">
-        <v>137462740</v>
+        <v>141608898</v>
       </c>
       <c r="M60" s="13">
-        <v>141608898</v>
+        <v>146500747</v>
       </c>
       <c r="N60" s="13">
-        <v>146500747</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143714886</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>41</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>16</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>19</v>
       </c>
@@ -2526,37 +2526,37 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13">
-        <v>258500000</v>
+        <v>255583333</v>
       </c>
       <c r="F63" s="13">
-        <v>255583333</v>
+        <v>282916667</v>
       </c>
       <c r="G63" s="13">
-        <v>282916667</v>
+        <v>251000000</v>
       </c>
       <c r="H63" s="13">
-        <v>251000000</v>
+        <v>251255814</v>
       </c>
       <c r="I63" s="13">
-        <v>251255814</v>
+        <v>265548387</v>
       </c>
       <c r="J63" s="13">
-        <v>265548387</v>
+        <v>322276316</v>
       </c>
       <c r="K63" s="13">
-        <v>322276316</v>
+        <v>371769231</v>
       </c>
       <c r="L63" s="13">
-        <v>371769231</v>
+        <v>473876404</v>
       </c>
       <c r="M63" s="13">
-        <v>473876404</v>
+        <v>409956044</v>
       </c>
       <c r="N63" s="13">
-        <v>409956044</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>620564417</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>20</v>
       </c>
@@ -2565,37 +2565,37 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>125600000</v>
+        <v>118379310</v>
       </c>
       <c r="F64" s="11">
-        <v>118379310</v>
+        <v>125700000</v>
       </c>
       <c r="G64" s="11">
-        <v>125700000</v>
+        <v>127571429</v>
       </c>
       <c r="H64" s="11">
-        <v>127571429</v>
+        <v>150382353</v>
       </c>
       <c r="I64" s="11">
-        <v>150382353</v>
+        <v>150932203</v>
       </c>
       <c r="J64" s="11">
-        <v>150932203</v>
+        <v>94268546</v>
       </c>
       <c r="K64" s="11">
-        <v>94268546</v>
+        <v>80987847</v>
       </c>
       <c r="L64" s="11">
-        <v>80987847</v>
+        <v>142380658</v>
       </c>
       <c r="M64" s="11">
-        <v>142380658</v>
+        <v>202498630</v>
       </c>
       <c r="N64" s="11">
-        <v>202498630</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>147396358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>21</v>
       </c>
@@ -2604,37 +2604,37 @@
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13">
-        <v>145222222</v>
+        <v>189756757</v>
       </c>
       <c r="F65" s="13">
-        <v>189756757</v>
+        <v>257000000</v>
       </c>
       <c r="G65" s="13">
-        <v>257000000</v>
+        <v>142600000</v>
       </c>
       <c r="H65" s="13">
-        <v>142600000</v>
+        <v>187625000</v>
       </c>
       <c r="I65" s="13">
-        <v>187625000</v>
+        <v>212428571</v>
       </c>
       <c r="J65" s="13">
-        <v>212428571</v>
+        <v>175292683</v>
       </c>
       <c r="K65" s="13">
-        <v>175292683</v>
+        <v>172250000</v>
       </c>
       <c r="L65" s="13">
-        <v>172250000</v>
+        <v>172484848</v>
       </c>
       <c r="M65" s="13">
-        <v>172484848</v>
+        <v>193131429</v>
       </c>
       <c r="N65" s="13">
-        <v>193131429</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>331017241</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>42</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>26</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2705,7 +2705,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2720,7 +2720,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>44</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2787,7 +2787,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>45</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>16</v>
       </c>
@@ -2827,11 +2827,11 @@
       <c r="I74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="11">
-        <v>0</v>
+      <c r="J74" s="11">
+        <v>0</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L74" s="11" t="s">
         <v>18</v>
@@ -2843,7 +2843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>19</v>
       </c>
@@ -2852,37 +2852,37 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>-1134143</v>
+        <v>-1533893</v>
       </c>
       <c r="F75" s="13">
-        <v>-1533893</v>
+        <v>-2175989</v>
       </c>
       <c r="G75" s="13">
-        <v>-2175989</v>
+        <v>-1091701</v>
       </c>
       <c r="H75" s="13">
-        <v>-1091701</v>
+        <v>-1994160</v>
       </c>
       <c r="I75" s="13">
-        <v>-1994160</v>
+        <v>-1517322</v>
       </c>
       <c r="J75" s="13">
-        <v>-1517322</v>
+        <v>-2046685</v>
       </c>
       <c r="K75" s="13">
-        <v>-2046685</v>
+        <v>-1504719</v>
       </c>
       <c r="L75" s="13">
-        <v>-1504719</v>
+        <v>-2227176</v>
       </c>
       <c r="M75" s="13">
-        <v>-2227176</v>
+        <v>-2311877</v>
       </c>
       <c r="N75" s="13">
-        <v>-2311877</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2747574</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>20</v>
       </c>
@@ -2891,37 +2891,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>-835917</v>
+        <v>-1195983</v>
       </c>
       <c r="F76" s="11">
-        <v>-1195983</v>
+        <v>-1740541</v>
       </c>
       <c r="G76" s="11">
-        <v>-1740541</v>
+        <v>-861162</v>
       </c>
       <c r="H76" s="11">
-        <v>-861162</v>
+        <v>-1835630</v>
       </c>
       <c r="I76" s="11">
-        <v>-1835630</v>
+        <v>-1637348</v>
       </c>
       <c r="J76" s="11">
-        <v>-1637348</v>
+        <v>-2153379</v>
       </c>
       <c r="K76" s="11">
-        <v>-2153379</v>
+        <v>-1710430</v>
       </c>
       <c r="L76" s="11">
-        <v>-1710430</v>
+        <v>-2894705</v>
       </c>
       <c r="M76" s="11">
-        <v>-2894705</v>
+        <v>-3020615</v>
       </c>
       <c r="N76" s="11">
-        <v>-3020615</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3156314</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>21</v>
       </c>
@@ -2930,74 +2930,74 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
-        <v>-439832</v>
+        <v>-537772</v>
       </c>
       <c r="F77" s="13">
-        <v>-537772</v>
+        <v>-1142757</v>
       </c>
       <c r="G77" s="13">
-        <v>-1142757</v>
+        <v>-762853</v>
       </c>
       <c r="H77" s="13">
-        <v>-762853</v>
+        <v>-1287844</v>
       </c>
       <c r="I77" s="13">
-        <v>-1287844</v>
+        <v>-1037358</v>
       </c>
       <c r="J77" s="13">
-        <v>-1037358</v>
+        <v>-1323228</v>
       </c>
       <c r="K77" s="13">
-        <v>-1323228</v>
+        <v>-1002838</v>
       </c>
       <c r="L77" s="13">
-        <v>-1002838</v>
+        <v>-1443000</v>
       </c>
       <c r="M77" s="13">
-        <v>-1443000</v>
+        <v>-1513782</v>
       </c>
       <c r="N77" s="13">
-        <v>-1513782</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1922922</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
-        <v>-2409892</v>
+        <v>-3267648</v>
       </c>
       <c r="F78" s="15">
-        <v>-3267648</v>
+        <v>-5059287</v>
       </c>
       <c r="G78" s="15">
-        <v>-5059287</v>
+        <v>-2715716</v>
       </c>
       <c r="H78" s="15">
-        <v>-2715716</v>
+        <v>-5117634</v>
       </c>
       <c r="I78" s="15">
-        <v>-5117634</v>
+        <v>-4192028</v>
       </c>
       <c r="J78" s="15">
-        <v>-4192028</v>
+        <v>-5523292</v>
       </c>
       <c r="K78" s="15">
-        <v>-5523292</v>
+        <v>-4217987</v>
       </c>
       <c r="L78" s="15">
-        <v>-4217987</v>
+        <v>-6564881</v>
       </c>
       <c r="M78" s="15">
-        <v>-6564881</v>
+        <v>-6846274</v>
       </c>
       <c r="N78" s="15">
-        <v>-6846274</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-7826810</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>47</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -3037,11 +3037,11 @@
       <c r="I80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="11">
-        <v>0</v>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L80" s="11" t="s">
         <v>18</v>
@@ -3053,7 +3053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>19</v>
       </c>
@@ -3062,37 +3062,37 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-848</v>
+        <v>-2199</v>
       </c>
       <c r="F81" s="13">
-        <v>-2199</v>
+        <v>-3046</v>
       </c>
       <c r="G81" s="13">
-        <v>-3046</v>
+        <v>-1670</v>
       </c>
       <c r="H81" s="13">
-        <v>-1670</v>
+        <v>-8686</v>
       </c>
       <c r="I81" s="13">
-        <v>-8686</v>
+        <v>-12467</v>
       </c>
       <c r="J81" s="13">
-        <v>-12467</v>
+        <v>-19560</v>
       </c>
       <c r="K81" s="13">
-        <v>-19560</v>
+        <v>-6931</v>
       </c>
       <c r="L81" s="13">
-        <v>-6931</v>
+        <v>-63834</v>
       </c>
       <c r="M81" s="13">
-        <v>-63834</v>
+        <v>70765</v>
       </c>
       <c r="N81" s="13">
-        <v>70765</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-136129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -3101,37 +3101,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-370</v>
+        <v>-2155</v>
       </c>
       <c r="F82" s="11">
-        <v>-2155</v>
+        <v>-963</v>
       </c>
       <c r="G82" s="11">
-        <v>-963</v>
+        <v>-2214</v>
       </c>
       <c r="H82" s="11">
-        <v>-2214</v>
+        <v>-8820</v>
       </c>
       <c r="I82" s="11">
-        <v>-8820</v>
+        <v>-38163</v>
       </c>
       <c r="J82" s="11">
-        <v>-38163</v>
+        <v>-63174</v>
       </c>
       <c r="K82" s="11">
-        <v>-63174</v>
+        <v>-45766</v>
       </c>
       <c r="L82" s="11">
-        <v>-45766</v>
+        <v>-57809</v>
       </c>
       <c r="M82" s="11">
-        <v>-57809</v>
+        <v>103575</v>
       </c>
       <c r="N82" s="11">
-        <v>103575</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-576808</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>21</v>
       </c>
@@ -3140,74 +3140,74 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>-391</v>
+        <v>-5433</v>
       </c>
       <c r="F83" s="13">
-        <v>-5433</v>
+        <v>-2419</v>
       </c>
       <c r="G83" s="13">
-        <v>-2419</v>
+        <v>-1328</v>
       </c>
       <c r="H83" s="13">
-        <v>-1328</v>
+        <v>-2417</v>
       </c>
       <c r="I83" s="13">
-        <v>-2417</v>
+        <v>-5784</v>
       </c>
       <c r="J83" s="13">
-        <v>-5784</v>
+        <v>-10669</v>
       </c>
       <c r="K83" s="13">
-        <v>-10669</v>
+        <v>-3043</v>
       </c>
       <c r="L83" s="13">
-        <v>-3043</v>
+        <v>-30672</v>
       </c>
       <c r="M83" s="13">
-        <v>-30672</v>
+        <v>33715</v>
       </c>
       <c r="N83" s="13">
-        <v>33715</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-104094</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
-        <v>-1609</v>
+        <v>-9787</v>
       </c>
       <c r="F84" s="15">
-        <v>-9787</v>
+        <v>-6428</v>
       </c>
       <c r="G84" s="15">
-        <v>-6428</v>
+        <v>-5212</v>
       </c>
       <c r="H84" s="15">
-        <v>-5212</v>
+        <v>-19923</v>
       </c>
       <c r="I84" s="15">
-        <v>-19923</v>
+        <v>-56414</v>
       </c>
       <c r="J84" s="15">
-        <v>-56414</v>
+        <v>-93403</v>
       </c>
       <c r="K84" s="15">
-        <v>-93403</v>
+        <v>-55740</v>
       </c>
       <c r="L84" s="15">
-        <v>-55740</v>
+        <v>-152315</v>
       </c>
       <c r="M84" s="15">
-        <v>-152315</v>
+        <v>208055</v>
       </c>
       <c r="N84" s="15">
-        <v>208055</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-817031</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>49</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>26</v>
       </c>
@@ -3247,23 +3247,23 @@
       <c r="I86" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>18</v>
+      <c r="J86" s="11">
+        <v>-33207</v>
       </c>
       <c r="K86" s="11">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="L86" s="11">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="M86" s="11">
-        <v>-14458</v>
+        <v>-6493</v>
       </c>
       <c r="N86" s="11">
-        <v>-6493</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-10376</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>50</v>
       </c>
@@ -3285,22 +3285,22 @@
         <v>0</v>
       </c>
       <c r="J87" s="17">
-        <v>0</v>
+        <v>-33207</v>
       </c>
       <c r="K87" s="17">
-        <v>-33207</v>
+        <v>-13000</v>
       </c>
       <c r="L87" s="17">
-        <v>-13000</v>
+        <v>-14458</v>
       </c>
       <c r="M87" s="17">
-        <v>-14458</v>
+        <v>-6493</v>
       </c>
       <c r="N87" s="17">
-        <v>-6493</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-10376</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="14" t="s">
         <v>29</v>
       </c>
@@ -3314,8 +3314,8 @@
       <c r="F88" s="15">
         <v>0</v>
       </c>
-      <c r="G88" s="15">
-        <v>0</v>
+      <c r="G88" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>18</v>
@@ -3339,7 +3339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>31</v>
       </c>
@@ -3353,11 +3353,11 @@
       <c r="F89" s="17">
         <v>0</v>
       </c>
-      <c r="G89" s="17">
-        <v>0</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>18</v>
+      <c r="G89" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="17">
+        <v>0</v>
       </c>
       <c r="I89" s="17">
         <v>0</v>
@@ -3378,44 +3378,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-2411501</v>
+        <v>-3277435</v>
       </c>
       <c r="F90" s="15">
-        <v>-3277435</v>
+        <v>-5065715</v>
       </c>
       <c r="G90" s="15">
-        <v>-5065715</v>
+        <v>-2720928</v>
       </c>
       <c r="H90" s="15">
-        <v>-2720928</v>
+        <v>-5137557</v>
       </c>
       <c r="I90" s="15">
-        <v>-5137557</v>
+        <v>-4248442</v>
       </c>
       <c r="J90" s="15">
-        <v>-4248442</v>
+        <v>-5649902</v>
       </c>
       <c r="K90" s="15">
-        <v>-5649902</v>
+        <v>-4286727</v>
       </c>
       <c r="L90" s="15">
-        <v>-4286727</v>
+        <v>-6731654</v>
       </c>
       <c r="M90" s="15">
-        <v>-6731654</v>
+        <v>-6644712</v>
       </c>
       <c r="N90" s="15">
-        <v>-6644712</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-8654217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3430,7 +3430,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3445,7 +3445,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3460,7 +3460,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B94" s="7" t="s">
         <v>51</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3512,7 +3512,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>52</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>16</v>
       </c>
@@ -3552,11 +3552,11 @@
       <c r="I97" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K97" s="11">
-        <v>0</v>
+      <c r="J97" s="11">
+        <v>0</v>
+      </c>
+      <c r="K97" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L97" s="11" t="s">
         <v>18</v>
@@ -3568,7 +3568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>19</v>
       </c>
@@ -3577,37 +3577,37 @@
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>628131</v>
+        <v>688787</v>
       </c>
       <c r="F98" s="13">
-        <v>688787</v>
+        <v>548574</v>
       </c>
       <c r="G98" s="13">
-        <v>548574</v>
+        <v>383481</v>
       </c>
       <c r="H98" s="13">
-        <v>383481</v>
+        <v>1031789</v>
       </c>
       <c r="I98" s="13">
-        <v>1031789</v>
+        <v>622236</v>
       </c>
       <c r="J98" s="13">
-        <v>622236</v>
+        <v>810194</v>
       </c>
       <c r="K98" s="13">
-        <v>810194</v>
+        <v>737874</v>
       </c>
       <c r="L98" s="13">
-        <v>737874</v>
+        <v>1255959</v>
       </c>
       <c r="M98" s="13">
-        <v>1255959</v>
+        <v>1467085</v>
       </c>
       <c r="N98" s="13">
-        <v>1467085</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1435401</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>20</v>
       </c>
@@ -3616,37 +3616,37 @@
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>432944</v>
+        <v>679041</v>
       </c>
       <c r="F99" s="11">
-        <v>679041</v>
+        <v>483086</v>
       </c>
       <c r="G99" s="11">
-        <v>483086</v>
+        <v>236491</v>
       </c>
       <c r="H99" s="11">
-        <v>236491</v>
+        <v>479751</v>
       </c>
       <c r="I99" s="11">
-        <v>479751</v>
+        <v>362936</v>
       </c>
       <c r="J99" s="11">
-        <v>362936</v>
+        <v>512445</v>
       </c>
       <c r="K99" s="11">
-        <v>512445</v>
+        <v>444947</v>
       </c>
       <c r="L99" s="11">
-        <v>444947</v>
+        <v>964253</v>
       </c>
       <c r="M99" s="11">
-        <v>964253</v>
+        <v>1270476</v>
       </c>
       <c r="N99" s="11">
-        <v>1270476</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1518831</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>21</v>
       </c>
@@ -3655,74 +3655,74 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>265031</v>
+        <v>338356</v>
       </c>
       <c r="F100" s="13">
-        <v>338356</v>
+        <v>295100</v>
       </c>
       <c r="G100" s="13">
-        <v>295100</v>
+        <v>90039</v>
       </c>
       <c r="H100" s="13">
-        <v>90039</v>
+        <v>283792</v>
       </c>
       <c r="I100" s="13">
-        <v>283792</v>
+        <v>169412</v>
       </c>
       <c r="J100" s="13">
-        <v>169412</v>
+        <v>335188</v>
       </c>
       <c r="K100" s="13">
-        <v>335188</v>
+        <v>255221</v>
       </c>
       <c r="L100" s="13">
-        <v>255221</v>
+        <v>441248</v>
       </c>
       <c r="M100" s="13">
-        <v>441248</v>
+        <v>544407</v>
       </c>
       <c r="N100" s="13">
-        <v>544407</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>609478</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>1326106</v>
+        <v>1706184</v>
       </c>
       <c r="F101" s="15">
-        <v>1706184</v>
+        <v>1326760</v>
       </c>
       <c r="G101" s="15">
-        <v>1326760</v>
+        <v>710011</v>
       </c>
       <c r="H101" s="15">
-        <v>710011</v>
+        <v>1795332</v>
       </c>
       <c r="I101" s="15">
-        <v>1795332</v>
+        <v>1154584</v>
       </c>
       <c r="J101" s="15">
-        <v>1154584</v>
+        <v>1657827</v>
       </c>
       <c r="K101" s="15">
-        <v>1657827</v>
+        <v>1438042</v>
       </c>
       <c r="L101" s="15">
-        <v>1438042</v>
+        <v>2661460</v>
       </c>
       <c r="M101" s="15">
-        <v>2661460</v>
+        <v>3281968</v>
       </c>
       <c r="N101" s="15">
-        <v>3281968</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3563710</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>54</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>16</v>
       </c>
@@ -3762,11 +3762,11 @@
       <c r="I103" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K103" s="11">
-        <v>0</v>
+      <c r="J103" s="11">
+        <v>0</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L103" s="11" t="s">
         <v>18</v>
@@ -3778,7 +3778,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>19</v>
       </c>
@@ -3787,37 +3787,37 @@
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="13">
-        <v>703</v>
+        <v>868</v>
       </c>
       <c r="F104" s="13">
-        <v>868</v>
+        <v>349</v>
       </c>
       <c r="G104" s="13">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="H104" s="13">
-        <v>87</v>
+        <v>2118</v>
       </c>
       <c r="I104" s="13">
-        <v>2118</v>
+        <v>3997</v>
       </c>
       <c r="J104" s="13">
-        <v>3997</v>
+        <v>4933</v>
       </c>
       <c r="K104" s="13">
-        <v>4933</v>
+        <v>2735</v>
       </c>
       <c r="L104" s="13">
-        <v>2735</v>
+        <v>20516</v>
       </c>
       <c r="M104" s="13">
-        <v>20516</v>
+        <v>108071</v>
       </c>
       <c r="N104" s="13">
-        <v>108071</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-34977</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>20</v>
       </c>
@@ -3826,37 +3826,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
-        <v>258</v>
+        <v>1278</v>
       </c>
       <c r="F105" s="11">
-        <v>1278</v>
+        <v>294</v>
       </c>
       <c r="G105" s="11">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="H105" s="11">
-        <v>465</v>
+        <v>1406</v>
       </c>
       <c r="I105" s="11">
-        <v>1406</v>
+        <v>6362</v>
       </c>
       <c r="J105" s="11">
-        <v>6362</v>
+        <v>363</v>
       </c>
       <c r="K105" s="11">
-        <v>363</v>
+        <v>883</v>
       </c>
       <c r="L105" s="11">
-        <v>883</v>
+        <v>11388</v>
       </c>
       <c r="M105" s="11">
-        <v>11388</v>
+        <v>177487</v>
       </c>
       <c r="N105" s="11">
-        <v>177487</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>78811</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>21</v>
       </c>
@@ -3865,74 +3865,74 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
-        <v>916</v>
+        <v>1588</v>
       </c>
       <c r="F106" s="13">
-        <v>1588</v>
+        <v>922</v>
       </c>
       <c r="G106" s="13">
-        <v>922</v>
+        <v>98</v>
       </c>
       <c r="H106" s="13">
-        <v>98</v>
+        <v>585</v>
       </c>
       <c r="I106" s="13">
-        <v>585</v>
+        <v>1651</v>
       </c>
       <c r="J106" s="13">
-        <v>1651</v>
+        <v>3705</v>
       </c>
       <c r="K106" s="13">
-        <v>3705</v>
+        <v>402</v>
       </c>
       <c r="L106" s="13">
-        <v>402</v>
+        <v>3480</v>
       </c>
       <c r="M106" s="13">
-        <v>3480</v>
+        <v>67513</v>
       </c>
       <c r="N106" s="13">
-        <v>67513</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-27298</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>1877</v>
+        <v>3734</v>
       </c>
       <c r="F107" s="15">
-        <v>3734</v>
+        <v>1565</v>
       </c>
       <c r="G107" s="15">
-        <v>1565</v>
+        <v>650</v>
       </c>
       <c r="H107" s="15">
-        <v>650</v>
+        <v>4109</v>
       </c>
       <c r="I107" s="15">
-        <v>4109</v>
+        <v>12010</v>
       </c>
       <c r="J107" s="15">
-        <v>12010</v>
+        <v>9001</v>
       </c>
       <c r="K107" s="15">
-        <v>9001</v>
+        <v>4020</v>
       </c>
       <c r="L107" s="15">
-        <v>4020</v>
+        <v>35384</v>
       </c>
       <c r="M107" s="15">
-        <v>35384</v>
+        <v>353071</v>
       </c>
       <c r="N107" s="15">
-        <v>353071</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16536</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>56</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>26</v>
       </c>
@@ -3972,23 +3972,23 @@
       <c r="I109" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J109" s="11" t="s">
-        <v>18</v>
+      <c r="J109" s="11">
+        <v>11828</v>
       </c>
       <c r="K109" s="11">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="L109" s="11">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="M109" s="11">
-        <v>11142</v>
+        <v>5424</v>
       </c>
       <c r="N109" s="11">
-        <v>5424</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>57</v>
       </c>
@@ -4010,56 +4010,56 @@
         <v>0</v>
       </c>
       <c r="J110" s="17">
-        <v>0</v>
+        <v>11828</v>
       </c>
       <c r="K110" s="17">
-        <v>11828</v>
+        <v>1639</v>
       </c>
       <c r="L110" s="17">
-        <v>1639</v>
+        <v>11142</v>
       </c>
       <c r="M110" s="17">
-        <v>11142</v>
+        <v>5424</v>
       </c>
       <c r="N110" s="17">
-        <v>5424</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>1327983</v>
+        <v>1709918</v>
       </c>
       <c r="F111" s="15">
-        <v>1709918</v>
+        <v>1328325</v>
       </c>
       <c r="G111" s="15">
-        <v>1328325</v>
+        <v>710661</v>
       </c>
       <c r="H111" s="15">
-        <v>710661</v>
+        <v>1799441</v>
       </c>
       <c r="I111" s="15">
-        <v>1799441</v>
+        <v>1166594</v>
       </c>
       <c r="J111" s="15">
-        <v>1166594</v>
+        <v>1678656</v>
       </c>
       <c r="K111" s="15">
-        <v>1678656</v>
+        <v>1443701</v>
       </c>
       <c r="L111" s="15">
-        <v>1443701</v>
+        <v>2707986</v>
       </c>
       <c r="M111" s="15">
-        <v>2707986</v>
+        <v>3640463</v>
       </c>
       <c r="N111" s="15">
-        <v>3640463</v>
+        <v>3582955</v>
       </c>
     </row>
   </sheetData>
